--- a/data/minfin/8_questions.xlsx
+++ b/data/minfin/8_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -10,8 +10,8 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -123,9 +123,6 @@
     <t>8.22</t>
   </si>
   <si>
-    <t>История, Возникновения, Пробирная Палата</t>
-  </si>
-  <si>
     <t>История возникновения Пробирной Палаты начинается с 13 февраля 1700 года, когда в своём именном приказе Петр I определил основу системы пробирного надзора</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
   </si>
   <si>
     <t>Кто инициировал создание Пробирного надзора?</t>
-  </si>
-  <si>
-    <t>Кто, Инициировал, Создание, Возникновение, Пробирная Палата, Пробирный надзор</t>
   </si>
   <si>
     <t>В 1700 году 13 февраля в своём именном приказе Петр I определил основу системы пробирного надзора</t>
@@ -191,9 +185,6 @@
     <t xml:space="preserve">В чем заключается основная деятельность Пробирной Палаты </t>
   </si>
   <si>
-    <t>Основная, Деятельность, Пробирная Палата</t>
-  </si>
-  <si>
     <t>«Российская государственная пробирная палата» осуществляет государственный контроль за исполнением организациями, осуществляющими скупку, куплю-продажу драгоценных металлов, драгоценных камней, ювелирных изделий из них и лома таких изделий, требований законодательства Российской Федерации о противодействии легализации (отмыванию) доходов, полученных преступным путем, и финансированию терроризма</t>
   </si>
   <si>
@@ -316,9 +307,6 @@
     </r>
   </si>
   <si>
-    <t>Как, История, Изменения, Изменялся, Вид, Клеймо, России</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 января 1899 года, вводится единообразное клеймо с изображением женской головы в кокошнике в профиль, направленной влево. 
 С 1908 года по всем пробирным округам, вводятся новые пробирные клейма с изображением женской головы в кокошнике в профиль, направленной вправо, сопровождающейся буквой греческого алфавита — различной для каждого пробирного округа. Проба в клейме, по-прежнему — золотниковая.
 В 1927 году на смену изображению женской головы в кокошнике приходит изображение головы рабочего с молотом. В рамках перехода на метрическую систему исчисления мер создаётся новая система, в которой проба обозначается числом тысячных долей золота в сплаве (она используется и по сей день). В клейме, так же проставляется и шифр пробирного учреждения (буква греческого алфавита).
@@ -328,9 +316,6 @@
   </si>
   <si>
     <t>Что такое именник производителя?</t>
-  </si>
-  <si>
-    <t>Именник, Производителя, Что такое, Определение</t>
   </si>
   <si>
     <t>Именник - это знак изготовителя, который проставляется юридическим лицом или индивидуальным предпринимателем на изготовленных ими изделиях (в том числе после ремонта или реставрации)</t>
@@ -371,9 +356,6 @@
     <t>Как определяется проба? Какие существуют способы клеймения ювелирных изделий?</t>
   </si>
   <si>
-    <t>Определяется, Проба, Способы, Клеймения, Ювелирные изделия</t>
-  </si>
-  <si>
     <t>Существует три способа клеймения ювелирных изделий: механический, электроискровой, лазерный</t>
   </si>
   <si>
@@ -397,9 +379,6 @@
     <t>Как определить фальшивое пробирное клеймо?</t>
   </si>
   <si>
-    <t>Определить, Клеймо, Фальшивое, Пробирное, Советы</t>
-  </si>
-  <si>
     <t>При определении поддельного клейма необходимо иметь хорошее освещение и лупу шестикратного увеличения и более, а также желательно подлинное клеймо для сравнения.
 Нужно обращать внимание на контур клейма изучаемого ювелирного изделия и не впаяна ли часть изделия от другого</t>
   </si>
@@ -433,9 +412,6 @@
   </si>
   <si>
     <t>Каковы функции Инспекций пробирного надзора?</t>
-  </si>
-  <si>
-    <t>Функции, Инспекция, Пробирного, Надзора</t>
   </si>
   <si>
     <t>Инспекция пробирного надзора осуществляет надзор за соответствием ювелирных изделий, изготавливаемых на территории России и ввозимых из-за рубежа для продажи, производит экспертизу музейных и архивных ценностей из драгоценных металлов и драгоценных камней, и осуществляет периодический контроль за обеспечением сохранности этих ценностей</t>
@@ -467,9 +443,6 @@
   </si>
   <si>
     <t>Где можно найти перечень инспекций Пробирной палаты? Сколько их всего в стране?</t>
-  </si>
-  <si>
-    <t>Где, Перечень, Инспекция, Пробирная, Палата, Сколько, Количество, В стране, В РФ</t>
   </si>
   <si>
     <t>В структуру Федерального казенного учреждения «Пробирная палата России» входит Центральный аппарат, 18 государственных инспекций пробирного надзора в регионах и 2 геммологических центра. 
@@ -540,9 +513,6 @@
     <t>Как происходит процедура подачи изделий на клеймение? Какие документы нужны? Какие сроки?</t>
   </si>
   <si>
-    <t>Процедура, Подачи, Ювелирные, Изделия, Клеймение, Проба, Клеймо, Документы, Сроки</t>
-  </si>
-  <si>
     <t>Клеймение ювелирных изделий осуществляется государственной инспекцией пробирного надзора в срок до 5 рабочих дней по заявлениям установленных форм. За процедуру клеймения взимается государственная пошлина</t>
   </si>
   <si>
@@ -568,9 +538,6 @@
     <t>Какие выдаются документы (сертификаты) на опробованные и заклейменные изделия?</t>
   </si>
   <si>
-    <t>Документы, Сертификаты, Опробованные, Заклейменные, Изделия</t>
-  </si>
-  <si>
     <t>На опробованных и заклейменных изделиях государственными инспекциями пробирного надзора ставится проба. Других документов и сертификатов не выдается</t>
   </si>
   <si>
@@ -647,13 +614,46 @@
   </si>
   <si>
     <t>История изменения вида клейма</t>
+  </si>
+  <si>
+    <t>Кто, Инициировал, Создание, Возникновение, Пробирный надзор</t>
+  </si>
+  <si>
+    <t>Как, История, Изменения, Изменялся, Вид, Клеймо</t>
+  </si>
+  <si>
+    <t>Определить, Индентифицировать, Клеймо, Фальшивое, Подделка, Поддельный, Фальшивый, Пробирное, Советы</t>
+  </si>
+  <si>
+    <t>Выдаются, Документы, Сертификаты, Опробованные, Заклейменные, Изделия</t>
+  </si>
+  <si>
+    <t>Где, Перечень, Инспекция, Пробирная, Палата, Сколько, Количество</t>
+  </si>
+  <si>
+    <t>История, Возникновения, Появление, Пробирная Палата, Возникать, Создавать, Создание</t>
+  </si>
+  <si>
+    <t>Основная, Деятельность, Пробирная Палата, Чем занимается, Что делает</t>
+  </si>
+  <si>
+    <t>Именник, Знак, Производителя, Что,  Обозначает, Определение, Это</t>
+  </si>
+  <si>
+    <t>Определить, Определяется, Проба, Способы, Клеймения, Ювелирные изделия</t>
+  </si>
+  <si>
+    <t>Каковы, Функции, Инспекция, Пробирного, Надзора</t>
+  </si>
+  <si>
+    <t>Какие, Процесс, Процедура, Подачи, происходить, Ювелирные, Изделия, Клеймение, Проба, Клеймо, Документы, Сроки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,6 +691,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -712,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -743,6 +750,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1055,29 +1068,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="47.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="63.140625" style="9" customWidth="1"/>
     <col min="5" max="5" width="39.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="40.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="44.7109375" style="2" customWidth="1"/>
@@ -1089,7 +1102,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1127,21 +1140,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="138.75" customHeight="1">
+    <row r="2" spans="1:12" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="6" t="s">
         <v>34</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="5"/>
@@ -1149,27 +1162,27 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="210" customHeight="1">
+    </row>
+    <row r="3" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="6" t="s">
         <v>39</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
@@ -1179,27 +1192,27 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="409.5">
+    <row r="4" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -1207,27 +1220,27 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="409.5">
+    <row r="5" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -1235,21 +1248,21 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" ht="409.5">
+    <row r="6" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1259,21 +1272,21 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" ht="110.25">
+    <row r="7" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1283,45 +1296,45 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="409.5">
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="F8" s="6"/>
       <c r="H8" s="5" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="173.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
@@ -1329,27 +1342,27 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="409.5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1359,53 +1372,53 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="141.75">
+    <row r="11" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="134.25" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -1415,27 +1428,27 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" ht="409.5">
+    <row r="13" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -1443,27 +1456,27 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" ht="173.25">
+    <row r="14" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1471,193 +1484,193 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" ht="113.25" customHeight="1">
+    <row r="15" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="110.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="409.5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="78.75">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="110.25">
+        <v>107</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="168" customHeight="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="409.5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="94.5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="126">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/8_questions.xlsx
+++ b/data/minfin/8_questions.xlsx
@@ -500,9 +500,6 @@
     <t>Можно ли проверить на пробу старинные ювелирные изделия?</t>
   </si>
   <si>
-    <t>Проверить, Эксперитиза, Проба, Клеймо, Старинные, Ювелирные, Изделия</t>
-  </si>
-  <si>
     <t>Пробирная палата осуществляет проверку на оригинальность клейм и проб на старинных ювелирных изделиях в установленном порядке, указанном на сайте Федерального казенного учреждения «Пробирная палата России»</t>
   </si>
   <si>
@@ -622,31 +619,34 @@
     <t>Как, История, Изменения, Изменялся, Вид, Клеймо</t>
   </si>
   <si>
-    <t>Определить, Индентифицировать, Клеймо, Фальшивое, Подделка, Поддельный, Фальшивый, Пробирное, Советы</t>
-  </si>
-  <si>
     <t>Выдаются, Документы, Сертификаты, Опробованные, Заклейменные, Изделия</t>
   </si>
   <si>
-    <t>Где, Перечень, Инспекция, Пробирная, Палата, Сколько, Количество</t>
-  </si>
-  <si>
-    <t>История, Возникновения, Появление, Пробирная Палата, Возникать, Создавать, Создание</t>
-  </si>
-  <si>
-    <t>Основная, Деятельность, Пробирная Палата, Чем занимается, Что делает</t>
-  </si>
-  <si>
-    <t>Именник, Знак, Производителя, Что,  Обозначает, Определение, Это</t>
-  </si>
-  <si>
-    <t>Определить, Определяется, Проба, Способы, Клеймения, Ювелирные изделия</t>
-  </si>
-  <si>
-    <t>Каковы, Функции, Инспекция, Пробирного, Надзора</t>
-  </si>
-  <si>
-    <t>Какие, Процесс, Процедура, Подачи, происходить, Ювелирные, Изделия, Клеймение, Проба, Клеймо, Документы, Сроки</t>
+    <t>Как, История, История, Возникновения, Появление, Пробирная Палата, Возникать, Создавать, Создание</t>
+  </si>
+  <si>
+    <t>Где, Перечень, Список, Инспекция, Пробирная, Палата, Сколько, Количество</t>
+  </si>
+  <si>
+    <t>Основная, Деятельность, Пробирная Палата, Чем занимается, Что делает, Заключается</t>
+  </si>
+  <si>
+    <t>Именник, Именник, Знак, Производителя, Что, Обозначает, Определение, Это</t>
+  </si>
+  <si>
+    <t>Определить, Определяется, Проба, Проба, Способы, Клеймения, Ювелирные изделия</t>
+  </si>
+  <si>
+    <t>Проверить, Проверка, Эксперитиза, Проба, Клеймо, Старинные, Ювелирные, Изделия</t>
+  </si>
+  <si>
+    <t>Определить, Понять, Индентифицировать, Поддельный, Пробирное, Клеймо, Фальшивое, Фальшивка, Подделка, Советы</t>
+  </si>
+  <si>
+    <t>Каковы, Функции, Инспекция, Пробирного, Надзора, Деятельность</t>
+  </si>
+  <si>
+    <t>Как, Какие, Процесс, Процедура, Процедура, Подачи, Изделия, Клеймение, Проба, Клеймо, Документы, Сроки, Происходить, Ювелирные</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1082,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1154,7 +1154,7 @@
         <v>34</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="5"/>
@@ -1182,7 +1182,7 @@
         <v>39</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
@@ -1206,7 +1206,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>43</v>
@@ -1304,20 +1304,20 @@
         <v>58</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F8" s="6"/>
       <c r="H8" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="220.5" x14ac:dyDescent="0.25">
@@ -1334,7 +1334,7 @@
         <v>63</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
@@ -1362,7 +1362,7 @@
         <v>68</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1386,7 +1386,7 @@
         <v>70</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>73</v>
@@ -1470,7 +1470,7 @@
         <v>86</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>87</v>
@@ -1515,19 +1515,19 @@
         <v>95</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="2" t="s">
         <v>96</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
@@ -1535,28 +1535,28 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>142</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="K17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="63" x14ac:dyDescent="0.25">
@@ -1564,16 +1564,16 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="D18" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
@@ -1581,16 +1581,16 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="168" customHeight="1" x14ac:dyDescent="0.25">
@@ -1598,22 +1598,22 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="F20" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="299.25" x14ac:dyDescent="0.25">
@@ -1621,16 +1621,16 @@
         <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
@@ -1638,16 +1638,16 @@
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
@@ -1655,22 +1655,22 @@
         <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/8_questions.xlsx
+++ b/data/minfin/8_questions.xlsx
@@ -123,9 +123,6 @@
     <t>8.22</t>
   </si>
   <si>
-    <t>История возникновения Пробирной Палаты начинается с 13 февраля 1700 года, когда в своём именном приказе Петр I определил основу системы пробирного надзора</t>
-  </si>
-  <si>
     <t>История возникновения Пробирной Палаты</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
   </si>
   <si>
     <t xml:space="preserve">В чем заключается основная деятельность Пробирной Палаты </t>
-  </si>
-  <si>
-    <t>«Российская государственная пробирная палата» осуществляет государственный контроль за исполнением организациями, осуществляющими скупку, куплю-продажу драгоценных металлов, драгоценных камней, ювелирных изделий из них и лома таких изделий, требований законодательства Российской Федерации о противодействии легализации (отмыванию) доходов, полученных преступным путем, и финансированию терроризма</t>
   </si>
   <si>
     <t xml:space="preserve">Федеральное казенное учреждение «Российская государственная пробирная палата при Министерстве финансов Российской Федерации» осуществляет:
@@ -188,9 +182,6 @@
     <t>Какие, пробы, официально, хождение, существуют. Российская Федерация</t>
   </si>
   <si>
-    <t>Все современные, изготовленные в России, ювелирные украшения и другие изделия из золота, серебра, платины, палладия должны быть заклеймены государственным пробирным клеймом и соответствовать пробам драгоценных металлов</t>
-  </si>
-  <si>
     <t>Когда появилось первое единообразное клеймо в России</t>
   </si>
   <si>
@@ -229,10 +220,6 @@
     <t>Как определить фальшивое пробирное клеймо?</t>
   </si>
   <si>
-    <t>При определении поддельного клейма необходимо иметь хорошее освещение и лупу шестикратного увеличения и более, а также желательно подлинное клеймо для сравнения.
-Нужно обращать внимание на контур клейма изучаемого ювелирного изделия и не впаяна ли часть изделия от другого</t>
-  </si>
-  <si>
     <t>Как определить фальшивое пробирное клеймо</t>
   </si>
   <si>
@@ -245,41 +232,7 @@
     <t>http://www.probpalata.ru/rgpp/activities/expertise.php</t>
   </si>
   <si>
-    <t>Когда появилась первая «Инспекция пробирного надзора»?</t>
-  </si>
-  <si>
-    <t>Когда, Появилась, Первая, Инспекция, Пробирного, Надзора</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В Российском государственном историческом архиве в фонде Государственного Совета хранится «высочайше» утвержденное Николаем II 23 мая 1896 г. мнение Государственного Совета «Об ассигновании кредита на постройку здания Московской пробирной палатки и на приобретение земельного для этой постройки участка».
-Мнением Государственного Совета разрешено внести в смету Департамента торговли и мануфактур министерства финансов на 1897 г. сумму, необходимую на постройку нового здания Московской пробирной палатки и на приобретение для означенного здания земельного участка. Сумма в размере 150 тысяч руб. была внесена в ст. 23 параграфа 8 расходной сметы Департамента на 1897 год. В 1897 г. Московская пробирная палатка преобразовывается в Московское пробирное управление.
-Для постройки здания Департамент торговли и мануфактур приобретает у московского купца Я.И. Фокина участок пустопорожней земли расположенный в Москве на Малой Бронной улице.
-В фонде Министерства торговли и промышленности хранится выписка из крепостной книги по г. Москве, Арбатской части за 1897 год, в которой указано, что московский купец  Яков Иванович Фокин и уполномоченный от Департамента торговли и мануфактур управляющий Московским пробирным округом Алексей Флавианович Васильев заключили 3 апреля 1897 г. договор купли-продажи на следующих условиях: Я.И. Фокин продал в собственность казны для московского пробирного управления участок земли, состоящий в Москве, Арбатской части под №№469 и 580, размером 629 кв. сажен  за 39400 руб. серебром
-</t>
-  </si>
-  <si>
     <t>Каковы функции Инспекций пробирного надзора?</t>
-  </si>
-  <si>
-    <t>Инспекция пробирного надзора осуществляет надзор за соответствием ювелирных изделий, изготавливаемых на территории России и ввозимых из-за рубежа для продажи, производит экспертизу музейных и архивных ценностей из драгоценных металлов и драгоценных камней, и осуществляет периодический контроль за обеспечением сохранности этих ценностей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Инспекция пробирного надзора осуществляет надзор за соответствием ювелирных изделий, изготавливаемых на территории России и ввозимых из-за рубежа для продажи. Производит экспертизу музейных и архивных ценностей из ДМ и ДК, и осуществляет периодический контроль за обеспечением сохранности этих ценностей.
-1. Инспекция изготавливает пробирные реактивы по заказам юридических лиц и предпринимателей.
-2. Осуществляет периодический контроль за полнотой сбора и сдачи в гос. фонд драг-содержащих отходов.
-3. Регистрирует шифры именников изготовителей ювелирной продукции
-4. Регистрирует юридических лиц и индивидуальных предпринимателей (постановка на специальный учет).
-5. Осуществляет государственный контроль по ввозу-вывозу ДМ и ДК в Россию и из неё.
-6. Финансовый мониторинг (контроль за операциями с ДМ и ДК на сумму от 600.000 рублей и выше).
-7. Обеспечивает пробирный надзор за деятельностью объектов, где используются ДМ и ДК.
-Инспекция может отправить на проверяемый объект контролера-ревизора, в права и обязанности, которого, входит:
-• Имеет право требовать от ревизуемых предприятий, представление всей нормативно-технической документации (в т.ч. бухгалтерской), касающейся ДМ и ДК.
-• Имеет право давать руководителю ревизуемого объекта, обязательные указания (предписания) об устранении выявленных недостатков.
-• Привлекать к административной ответственности в соответствии с КоАП РФ.
-• Передавать материалы судебно-следственным органам.
-• Приостанавливать действие разрешительных документов.
-• Должен предъявить командировочное удостоверение, предписание на проведение проверки, план проведения проверки, удостоверение
-</t>
   </si>
   <si>
     <t>Информация о функциях государственных инспекций пробирного надзора на официальном сайте ФКУ «Пробирная палата России»</t>
@@ -292,11 +245,6 @@
     <t>Где можно найти перечень инспекций Пробирной палаты? Сколько их всего в стране?</t>
   </si>
   <si>
-    <t xml:space="preserve">В структуру Федерального казенного учреждения «Пробирная палата России» входит Центральный аппарат, 18 государственных инспекций пробирного надзора в регионах и 2 геммологических центра. 
-Адреса и контактные данные инспекций представлены на официальном сайте Пробирной палаты России в разделе «Контакты»
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Раздел «Контакты» на официальном сайте ФКУ «Пробирная палата России»
 </t>
   </si>
@@ -314,25 +262,6 @@
     <t>Федеральное казенное учреждение «Пробирная палата России» осуществляет специальный учет юридических лиц и индивидуальных предпринимателей, осуществляющих операции с драгоценными металлами и драгоценными камнями</t>
   </si>
   <si>
-    <t>Постановку на специальный учет осуществляет федеральное казенное учреждение «Российская государственная пробирная палата при Министерстве финансов Российской Федерации» в соответствии с Постановлением Правительства Российской Федерации от 1 октября 2015 г. №1052 «О ведении специального учета юридических лиц и индивидуальных предпринимателей, осуществляющих операции с драгоценными металлами и драгоценными камнями».
-Постановке на специальный учет подлежат юридические лица и индивидуальные предприниматели, осуществляющие операции с драгоценными металлами и драгоценными камнями, за исключением:
-а) кредитных организаций (банков);
-б) организаций, использующих в своей деятельности химические соединения драгоценных металлов для проведения анализов;
-в) организаций, осуществляющих куплю-продажу и (или) использование готовых форм фармацевтической, парфюмерной и косметической продукции, содержащей химические соединения драгоценных металлов;
-г) образовательных организаций, использующих в своей деятельности химические соединения драгоценных металлов при осуществлении образовательных процессов;
-д) организаций, осуществляющих куплю-продажу и (или) использование серебросодержащих фотопластинок, фото- и кинопленки, фотобумаги и прочих светочувствительных фотоматериалов;
-е) организаций, осуществляющих куплю-продажу и (или) использование лакокрасочной продукции, содержащей драгоценные металлы;
-ж) медицинских организаций, осуществляющих армирование нитями из драгоценных металлов, устанавливающих имплантаты, искусственные зубы, зубные протезы, протезные приспособления, а также использующих стоматологические цементы и другие стоматологические пломбировочные материалы, содержащие драгоценные металлы или изготовленные из них;
-з) организаций, использующих машины и оборудование, приборы, инструменты, электронную технику, пускорегулирующие устройства и устройства автоматики, электрические устройства, комплектующие детали, узлы, содержащие драгоценные металлы, за исключением организаций, использующих изготовленные из драгоценных металлов и их сплавов стеклоплавильные устройства, тигли, катализаторные сетки, лабораторную посуду;
-и) организаций, использующих для ремонта машин и оборудования, приборов, инструментов, электронной техники, пускорегулирующих устройств и устройств автоматики, электрических устройств химические соединения, сплавы, припои, содержащие драгоценные металлы;
-к) организаций, осуществляющих куплю-продажу и (или) использующих в своей деятельности инструменты и (или) изделия производственно-технического назначения, содержащие природные алмазы.
-Юридические лица и индивидуальные предприниматели подлежат постановке на специальный учет в течение 30 календарных дней с даты их государственной регистрации либо внесения соответствующих изменений в их учредительные документы.
-Для постановки на специальный учет необходимо представить следующие документы:
-1) заявление о постановке на специальный учет в произвольной форме, подписанное руководителем юридического лица или индивидуальным предпринимателем; 
-2) карта специального учета по установленной форме, утверждаемой Министерством финансов Российской Федерации (в соответствии с приказом Минфина России от 1 февраля 2016 г. № 5н «Об утверждении форм документов, необходимых для специального учета юридических лиц или индивидуальных предпринимателей, осуществляющих операции с драгоценными металлами и драгоценными камнями»).
-Подробнее ознакомиться с информацией о специальном учете, а также скачать форму карты постановки на учет в ГИПН можно на официальном сайте ФКУ «Пробирная палата России» в разделе «Предпринимателям и физ.лицам» - «Специальный учет»</t>
-  </si>
-  <si>
     <t xml:space="preserve">Раздел «Специальный учет» официального сайта ФКУ «Пробирная палата России»
 </t>
   </si>
@@ -343,9 +272,6 @@
     <t>Можно ли проверить на пробу старинные ювелирные изделия?</t>
   </si>
   <si>
-    <t>Пробирная палата осуществляет проверку на оригинальность клейм и проб на старинных ювелирных изделиях в установленном порядке, указанном на сайте Федерального казенного учреждения «Пробирная палата России»</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 http://www.probpalata.ru/rgpp/activities/expertise.php</t>
   </si>
@@ -369,16 +295,10 @@
     <t>Какие выдаются документы (сертификаты) на опробованные и заклейменные изделия?</t>
   </si>
   <si>
-    <t>На опробованных и заклейменных изделиях государственными инспекциями пробирного надзора ставится проба. Других документов и сертификатов не выдается</t>
-  </si>
-  <si>
     <t>Можно ли подавать изделия на клеймение не только в ГИПН того города, где я прописан или зарегистрирована моя организация?</t>
   </si>
   <si>
     <t>Подавать, Изделия, Клеймение, в ГИПН, Город, Прописан, Зарегистрирован, Организация, Компания</t>
-  </si>
-  <si>
-    <t>Для физических лиц и компаний импортеров можно опробовать и заклеймить изделия в ГИПН любого региона. Для российских компаний клеймение и опробование можно сделать только в ГИПН, где компания состоит на специальном учете</t>
   </si>
   <si>
     <t>Если я живу не в Москве, куда я должен обратиться по вопросу опробования своих изделий?</t>
@@ -406,10 +326,6 @@
     <t>Нерезидент, Страны, Нужно ставить, Российская проба, Изделия, Для реализации, На территории, Россия</t>
   </si>
   <si>
-    <t>Все ювелирные изделия из драгоценных металлов, ввозимые в Россию из-за рубежа, для сдачи на комиссию или реализацию подлежат 100% переклеймению Российскими пробирными клеймами. Переклеймение пробных изделий осуществляется только при наличии соответствующих сопроводительных документов.
-24 мая 2013 года Госдума РФ ратифицировала соглашение между Правительством РФ и Федеральным советом Швейцарии, подписанного в Москве 14 декабря 2011 года о взаимном признании официальных клейм на изделиях часовой промышленности, изготовленных из драгоценных металлов. Часы из золота, серебра, платины и палладия, ввозимые в Россию и имеющие оттиски официального клейма Швейцарской Конфедерации, клейма завода-изготовителя и законодательно установленного стандарта пробы — не будут подвергаться новому анализу и клеймению в Российской Федерации. Соответственно, при ввозе Российских часов из драг-металлов в Швейцарию, прохождение подобной процедуры, так -же не потребуется</t>
-  </si>
-  <si>
     <t>Могу ли я продавать свои изделия на территории другой страны, не ставя российское клеймо?</t>
   </si>
   <si>
@@ -441,29 +357,6 @@
     <t>История изменения вида клейма</t>
   </si>
   <si>
-    <t>Существует три способа клеймения ювелирных изделий: 
-МЕХАНИЧЕСКИЙ — оттиски клейм наносятся на изделие ударным способом (механическими пробирными клеймами при помощи молотка, либо на станках для массового клеймения). Оттиски наносятся как изнутри, так и снаружи. Так же используются специальные подставки — наковаленки, подходящие по форме к изделию. Является самым массовым способом (70-80% всех изделий клеймятся именно так - статистика 2008 г.).
- ДОСТОИНСТВА: Оттиски чёткие, стойкие, долговечные
- НЕДОСТАТКИ: При нанесении клейм, изделие может быть подвержено порче (некоторой деформации от удара молотком по клейму).
-ЭЛЕКТРОИСКРОВОЙ — оттиски клейм наносятся на изделие медными клеймами-электродами при помощи электроискровой установки. Оттиск выжигают искрой, бегущей по контуру клейма-электрода, в водной среде, под действием электрического тока. Отличительной особенностью именника для электроискрового клеймения должны являться перемычки сверху между контуром именника и его знаками, а так же заход электрода впереди сверху. 10-20% ювелирных изделий клеймятся данным способом (примерно 400 изделий в смену).
-В 1967 году происходили пробные клеймения электроискровым способом (Юбилейные клейма). С 1971 года способ используется Центральной ГИПН. с 1972 года — Уральской ГИПН.
- ДОСТОИНСТВА: Оттиски чёткие, стойкие, долговечные. Изделия порче не подвергаются. Возможность нанесения на специфические формы, а так же полые и т.п. изделия.
- НЕДОСТАТКИ: Единственный нюанс состоит в необходимости более тщательной подготовки площадки под оттиск пробы. Малейшие поры, шероховатости, дефекты литья или недостаточная полировка — и электроискровой способ уже неприменим.
-ЛАЗЕРНЫЙ — осуществляется при помощи лазерной установки. При этом используются клейма-маски. Контур клейма идёт пунктиром. Поверхность должна быть тщательно подготовлена, отполирована. 10-20% ювелирных изделий клеймятся данным способом (примерно 600 изделий в смену)
-Способ используется:
-с 1996 года — Северо-Западной ГИПН
-с 1998 года — Уральской ГИПН
- ДОСТОИНСТВА: Оттиски чёткие. Возможность нанесения на любую поверхность (выпуклую, вогнутую, полую).
- НЕДОСТАТКИ: Не имеет, за исключением тщательной подготовки поверхности.
-В недалеком будущем, появится ещё один способ — при помощи «ПИШУЩЕГО ЛАЗЕРА»</t>
-  </si>
-  <si>
-    <t>Государственными инспекциями пробирного надзора осуществляется опробование, анализ и клеймение государственным пробирным клеймом изготовляемых на территории Российской Федерации ювелирных и других бытовых изделий из драгоценных металлов, а также указанных изделий, ввезенных на территорию Российской Федерации для продажи по  заявлениям установленных форм. При сдаче в заявлении указывается состав сплава изделий, заявленная проба, имеющиеся в изделии дефекты, масса, количество, объем.
-На принятые изделия приемщиком госинспекции оформляются квитанции в трех экземплярах по установленным формам. Сдатчик изделий уведомляется о размерах начисленной государственной пошлины.
-При установленном Минфином России сроке клеймения изделий - 10 дней, Пробирной палатой России в инициативном порядке данный срок для инспекций был сокращен до 5 рабочих дней, и фактически в настоящее время он не превышает 4-5 дней
-Подробнее ознакомиться с процедурой подачи изделий на опробование и клеймение государственным пробирным клеймом, необходимыми документами и сроками клеймения можно ознакомиться в прилагаемом документе «Прием изделий на опробование и клеймение» или на официальном сайте ФКУ «Пробирная палата России» в разделе «Прием изделий на опробование и клеймение»</t>
-  </si>
-  <si>
     <t>Кто, Инициировал, Создание, Возникновение, Пробирный надзор</t>
   </si>
   <si>
@@ -498,12 +391,6 @@
   </si>
   <si>
     <t>Как, История, Возникновения, Появление, Пробирная Палата, Возникать, Создавать, Создание</t>
-  </si>
-  <si>
-    <t>История возникновения Пробирной Палаты начинается с тринадцатого февраля одна тысяча семисотого года, когда в своём именном приказе Петр первый определил основу системы пробирного надзора</t>
-  </si>
-  <si>
-    <t>В одна тысяча семисотом году тринадцатого февраля в своём именном приказе Петр первый определил основу системы пробирного надзора</t>
   </si>
   <si>
     <r>
@@ -579,45 +466,29 @@
     <t>В одна тысяча восемьсот девяносто девятом году было введено единообразное клеймо по всем пробирным округам с изображением женской головы в кокошнике в профиль, направленной влево. С одна тысяча девятьсот восьмого года клеймо претерпело ряд изменений. На текущий момент на нем изображается женская голова в кокошнике в профиль, направленная вправо</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Именник - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">это знак изготовителя, который проставляется юридическим лицом или индивидуальным предпринимателем на изготовленных ими, изделиях (в том числе после ремонта/реставрации).
-Именник содержит информацию о годе выпуска изделия, госинспекции, где состоит на специальном учёте изготовитель, а так же его индивидуальные знаки (несколько цифр и букв). Первая буква обозначает год изготовления буква [К] — 2009 год, вторая - шифр инспекции [Л] — Северо-западная ГИПН, далее следуют буквы, идентифицирующие мастера — [РН]
-С историей развития именников в России можно ознакомиться в документе «Именник производителя»
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Датой возникновения «Инспекции пробирного надзора» принято считать одна тысяча восемьсот девяносто седьмой год</t>
-  </si>
-  <si>
-    <t>В структуру Федерального казенного учреждения «Пробирная палата России» входит Центральный аппарат, восемнадцать государственных инспекций пробирного надзора в регионах и два геммологических центра. 
-Адреса и контактные данные инспекций представлены на официальном сайте Пробирной палаты России в разделе «Контакты»</t>
-  </si>
-  <si>
-    <t>Клеймение ювелирных изделий осуществляется государственной инспекцией пробирного надзора в срок до пяти рабочих дней по заявлениям установленных форм. За процедуру клеймения взимается государственная пошлина</t>
-  </si>
-  <si>
-    <t>Все ювелирные изделия из драгоценных металлов, ввозимые в Россию из-за рубежа, для сдачи на комиссию или реализацию подлежат сто процентному переклеймению Российскими пробирными клеймами</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Все современные, изготовленные в России, ювелирные украшения и другие изделия из золота, серебра, платины, палладия должны соответствовать пробам, определенным постановлением правительства Российской Федерации №643 от 18 июня 1999 г. «О порядке опробования и клеймения изделий из ДМ», и быть заклеймены государственным пробирным клеймом. 
-Перечень проб драгоценных металлов (утв. постановлением Правительства РФ от 6 мая 2016 г. N 394):
+    <t>История возникновения Пробирной Палаты начинается с 13 февраля 1700 года, когда в своём именном приказе Петр I определил основу системы пробирного надзора. 
+С полной версией истории возникновения Пробирной Палаты можно ознакомиться в документе «История возникновения Пробирной Палаты»</t>
+  </si>
+  <si>
+    <t>Инспекция пробирного надзора осуществляет надзор за соответствием ювелирных изделий, изготавливаемых на территории России и ввозимых из-за рубежа для продажи установленным в Российской Федерации пробам, осуществляет федеральный государственный пробирный  надзор, производит экспертизу музейных и архивных ценностей из драгоценных металлов и драгоценных камней, и осуществляет периодический контроль за обеспечением сохранности этих ценностей. Опробование и клеймение ювелирных и других изделий из драгоценных металлов</t>
+  </si>
+  <si>
+    <t>На опробованных и заклейменных изделиях государственными инспекциями пробирного надзора ставится оттиски государственных пробирных клейм. Других документов и сертификатов не выдается</t>
+  </si>
+  <si>
+    <t>Иностранным юридическим лицам необходимо пройти государственную регистрацию, т.е. стать резидентом Российской Федерации. Все ювелирные изделия из драгоценных металлов, ввозимые в Россию из-за рубеж подлежат 100% переклеймению Российскими пробирными клеймами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">История возникновения Пробирной Палаты начинается с тринадцатого февраля одна тысяча семисотого года, когда в своём именном приказе Петр первый определил основу системы пробирного надзора. </t>
+  </si>
+  <si>
+    <t>«Российская государственная пробирная палата» осуществляет опробование и клеймение ювелирных и других изделий из драгоценных металлов. Государственный контроль  за исполнением организациями, осуществляющими скупку, куплю-продажу драгоценных металлов, драгоценных камней, ювелирных изделий из них и лома таких изделий требований законодательства Российской Федерации о противодействии легализации (отмыванию) доходов, полученных преступным путем, и финансированию терроризма. Контроль за ввозом/вывозом драгоценных металлов. Ведение специального учета»</t>
+  </si>
+  <si>
+    <t>Все ювелирные и другие изделия из золота, серебра, платины, палладия, реализуемые в России, должны быть заклеймены государственным пробирным клеймом и соответствовать пробам драгоценных металлов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Все ювелирные украшения и другие изделия из золота, серебра, платины, палладия должны соответствовать пробам, определенным постановлением правительства Российской Федерации № 394 от 06.05.2016 г. «Об опробовании, анализе и клеймении ювелирных и других изделий из драгоценных металлов», и быть заклеймены государственным пробирным клеймом:
      Платиновая 950 (девятьсот пятидесятая)
      Платиновая 900 (девятисотая)
      Платиновая 850 (восемьсот пятидесятая)
@@ -642,12 +513,163 @@
 Для золота 853 пробы допускается только для изготовления ювелирных изделий из золота по обращениям физических лиц
 </t>
   </si>
+  <si>
+    <t>Именник - это знак изготовителя, который проставляется юридическим лицом или индивидуальным предпринимателем на изготовленных ими, изделиях (в том числе после ремонта/реставрации).
+Именник содержит информацию о годе выпуска изделия, изготовителе, госинспекции, в которой именник зарегестрирован, а так же индивидуальные знаки (несколько цифр и букв). Первая буква обозначает год изготовления буква [К] — 2009 год, вторая - шифр инспекции [Л] — Северо-западная ГИПН, далее следуют буквы, идентифицирующие мастера — [РН]
+С историей развития именников в России можно ознакомиться в документе «Именник производителя»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Существует три способа клеймения ювелирных изделий: 
+МЕХАНИЧЕСКИЙ — оттиски клейм наносятся на изделие ударным способом (механическими пробирными клеймами при помощи молотка, либо на станках для массового клеймения). Оттиски наносятся как изнутри, так и снаружи. Так же используются специальные подставки — наковаленки, подходящие по форме к изделию. Является самым массовым способом (70-80% всех изделий клеймятся именно так - статистика 2008 г.).
+ ДОСТОИНСТВА: Оттиски чёткие, стойкие, долговечные
+ НЕДОСТАТКИ: При нанесении клейм, изделие может быть подвержено порче (некоторой деформации от удара молотком по клейму).
+ЭЛЕКТРОИСКРОВОЙ — оттиски клейм наносятся на изделие медными клеймами-электродами при помощи электроискровой установки. Оттиск выжигают искрой, бегущей по контуру клейма-электрода, в водной среде, под действием электрического тока. Отличительной особенностью именника для электроискрового клеймения должны являться перемычки сверху между контуром именника и его знаками, а так же заход электрода впереди сверху. 10-20% ювелирных изделий клеймятся данным способом (примерно 400 изделий в смену).
+В 1967 году происходили пробные клеймения электроискровым способом (Юбилейные клейма). С 1971 года способ используется Центральной ГИПН. с 1972 года — Уральской ГИПН.
+ ДОСТОИНСТВА: Оттиски чёткие, стойкие, долговечные. Изделия порче не подвергаются. Возможность нанесения на специфические формы, а так же полые и т.п. изделия.
+ НЕДОСТАТКИ: Единственный нюанс состоит в необходимости более тщательной подготовки площадки под оттиск пробы. Малейшие поры, шероховатости, дефекты литья или недостаточная полировка — и электро-искровой способ уже неприменим.
+ЛАЗЕРНЫЙ  (масочный и сканаторный)— осуществляется при помощи лазерной установки. При этом используются клейма-маски или сканирующее излучение. Контур клейма идёт пунктиром. Поверхность должна быть тщательно подготовлена, отполирована. 10-20% ювелирных изделий клеймятся данным способом (примерно 600 изделий в смену)
+Способ используется:
+с 1996 года — Северо-Западной ГИПН
+с 1998 года — Уральской ГИПН
+ ДОСТОИНСТВА: Оттиски чёткие. Возможность нанесения на любую поверхность (выпуклую, вогнутую, полую). Клеймо более глубокое.
+ НЕДОСТАТКИ: Не имеет, за исключением тщательной подготовки поверхности.
+</t>
+  </si>
+  <si>
+    <t>Оттиск фальшивого клейма может быть определен визуально с помощью оптических средств в сравнении с оттиском подлинного клейма. Экспертизу лучше проводить специалисту, потребителю рекомендуем обращаться в государственные инспекции пробирного надзора</t>
+  </si>
+  <si>
+    <r>
+      <t>В одна тысяча семисотом году тринадцатого февраля в своём именном приказе Петр первый определил основ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">ы единой </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>системы пробирного надзора</t>
+    </r>
+  </si>
+  <si>
+    <t>Где располагалось первое здание Пробирной палаты?</t>
+  </si>
+  <si>
+    <t>Здание, первое, располагалось  Пробирная, Палата</t>
+  </si>
+  <si>
+    <t>Здание Пробирной палаты — утраченный памятник истории и архитектуры XVIII—XIX веков. Здание находилось в Санкт-Петербурге и выходило на Канал Грибоедова (дом 51) и Казанскую улицу (дом 28).
+Построено между 1768 и 1773 годом для Ассигнационного банка. Строение просматривается на плане Сент-Илера, сделанном как бы с высоты птичьего полёта. После переезда банка в новое здание на Садовой улице, освободившиеся помещения были переданы Государственному дворянскому заемному банку, а с 1840 года здесь разместилась Пробирная палата.
+Фасад по Казанской улице около 1866 года перестраивал В. Е. Стуккей, помощником которого при строительстве служил тогда еще молодой зодчий П. Ю. Сюзор, который «принял на себя ближайший надзор за всеми работами» М. Микишатьев, обнаруживший документы по строительству, отмечает, что это была первая работа Сюзора в Санкт-Петербурге
+В 1875—1876 годах здание Пробирной палаты было перестроено архитектором  Г.Б. Прангом, но фасады больше не менялись.
+Пробирная палата, ставшая в советское время Ленинградским управлением пробирного контроля, занимала это здание до 1980-х.
+Здание пробирной палаты было снесено в конце февраля 2008 года ради строительства гостиницы «Рэдиссон САС» компанией ООО «Легион»</t>
+  </si>
+  <si>
+    <t>Здание Пробирной палаты утраченный памятник истории и архитектуры восемнадцатого девятнадцатого веков. Здание находилось в Санкт-Петербурге и выходило на Канал Грибоедова и Казанскую улицу</t>
+  </si>
+  <si>
+    <t>Инспекция пробирного надзора осуществляет надзор за соответствием ювелирных изделий, изготавливаемых на территории России и ввозимых из-за рубежа для продажи установленным в Российской Федерации пробам, осуществляет федеральный государственный пробирный надзор. Производит экспертизу музейных и архивных ценностей из ДМ и ДК, и осуществляет периодический контроль за обеспечением сохранности этих ценностей.
+Другим важным направлением деятельности инспекций является осуществление специального учета организаций, индивидуальных предпринимателей, осуществляющих операции с драгоценными металлами, драгоценными камнями и изделиями из них. Специальный учет данных субъектов предусмотрен постановлением Правительства Российской Федерации от 1 октября 2015 г. № 1052 «О ведении специального учета юридических лиц и индивидуальных предпринимателей, осуществляющих операции с драгоценными металлами и драгоценными камнями», которое упростило процедуру постановки на специальный учет, что выразилось в увеличении количества заявлений. 
+На специальном учете в государственных инспекциях пробирного надзора состоит около  42 000 субъектов, без учета обособленных подразделений.
+С учетом обособленных подразделений – более 100 000 единиц учета.
+1. Инспекция изготавливает пробирные реактивы по заказам юридических лиц и предпринимателей.
+2. Регистрирует шифры именников изготовителей ювелирной продукции
+3. Регистрирует юридических лиц и индивидуальных предпринимателей (постановка на специальный учет).
+4. Осуществляет государственный контроль по ввозу-вывозу ДМ и ДК и сырьевых товаров, содержащих драгоценные металлы в Россию и из неё.
+5. Финансовый мониторинг (контроль за операциями с ДМ и ДК на сумму от 600.000 рублей и выше).
+6. Обеспечивает федеральный государственный пробирный надзор за деятельностью объектов, где используются ДМ и ДК.
+Инспекция может отправить на проверяемый объект контролера-ревизора, в права и обязанности, которого, входит:
+• Имеет право требовать от ревизуемых предприятий, представление всей нормативно-технической документации (в т.ч. бухгалтерской), касающейся ДМ и ДК.
+• Имеет право давать руководителю ревизуемого объекта, обязательные указания (предписания) об устранении выявленных недостатков.
+• Привлекать к административной ответственности в соответствии с КоАП РФ.
+• Передавать материалы судебно-следственным органам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В структуру Федерального казенного учреждения «Пробирная палата России» входит Центральный аппарат, 18 государственных инспекций пробирного надзора в регионах и 1 гомологический центр в составе Государственной инспекции пробирного надзор по Москве и МО. 
+Адреса и контактные данные инспекций представлены на официальном сайте Пробирной палаты России в разделе «Контакты»
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Постановку на специальный учет осуществляет федеральное казенное учреждение «Российская государственная пробирная палата при Министерстве финансов Российской Федерации» в соответствии с Постановлением Правительства Российской Федерации от 1 октября 2015 г. №1052 «О ведении специального учета юридических лиц и индивидуальных предпринимателей, осуществляющих операции с драгоценными металлами и драгоценными камнями».
+Постановке на специальный учет подлежат юридические лица и индивидуальные предприниматели, осуществляющие операции с драгоценными металлами и драгоценными камнями, за исключением:
+а) кредитных организаций (банков);
+б) организаций, использующих в своей деятельности химические соединения драгоценных металлов для проведения анализов;
+в) организаций, осуществляющих куплю-продажу и (или) использование готовых форм фармацевтической, парфюмерной и косметической продукции, содержащей химические соединения драгоценных металлов;
+г) образовательных организаций, использующих в своей деятельности химические соединения драгоценных металлов при осуществлении образовательных процессов;
+д) организаций, осуществляющих куплю-продажу и (или) использование серебросодержащих фотопластинок, фото- и кинопленки, фотобумаги и прочих светочувствительных фотоматериалов;
+е) организаций, осуществляющих куплю-продажу и (или) использование лакокрасочной продукции, содержащей драгоценные металлы;
+ж) медицинских организаций, осуществляющих армирование нитями из драгоценных металлов, устанавливающих имплантаты, искусственные зубы, зубные протезы, протезные приспособления, а также использующих стоматологические цементы и другие стоматологические пломбировочные материалы, содержащие драгоценные металлы или изготовленные из них;
+з) организаций, использующих машины и оборудование, приборы, инструменты, электронную технику, пускорегулирующие устройства и устройства автоматики, электрические устройства, комплектующие детали, узлы, содержащие драгоценные металлы, за исключением организаций, использующих изготовленные из драгоценных металлов и их сплавов стеклоплавильные устройства, тигли, катализаторные сетки, лабораторную посуду;
+и) организаций, использующих для ремонта машин и оборудования, приборов, инструментов, электронной техники, пускорегулирующих устройств и устройств автоматики, электрических устройств химические соединения, сплавы, припои, содержащие драгоценные металлы;
+к) организаций, осуществляющих куплю-продажу и (или) использующих в своей деятельности инструменты и (или) изделия производственно-технического назначения, содержащие природные алмазы.
+Юридические лица и индивидуальные предприниматели подлежат постановке на специальный учет в течение 30 календарных дней с даты их государственной регистрации либо внесения соответствующих изменений в их учредительные документы.
+Для постановки на специальный учет необходимо представить следующие документы:
+1) заявление о постановке на специальный учет в произвольной форме, подписанное руководителем юридического лица или индивидуальным предпринимателем; 
+2) карта специального учета </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>заполненная</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> по установленной форме, утверждаемой Министерством финансов Российской Федерации (в соответствии с приказом Минфина России от 1 февраля 2016 г. № 5н «Об утверждении форм документов, необходимых для специального учета юридических лиц или индивидуальных предпринимателей, осуществляющих операции с драгоценными металлами и драгоценными камнями»).
+Подробнее ознакомиться с информацией о специальном учете, а также скачать форму карты постановки на учет в ГИПН можно на официальном сайте ФКУ «Пробирная палата России» в разделе «Предпринимателям и физ.лицам» - «Специальный учет»</t>
+    </r>
+  </si>
+  <si>
+    <t>Государственные инспекции пробирного надзора осуществляют экспертизу оттисков пробирных клейм и определяют содержание драгоценных металлов ювелирных изделиях в установленном порядке, указанном на официальном сайте Федерального казенного учреждения «Пробирная палата России»</t>
+  </si>
+  <si>
+    <t>Клеймение ювелирных изделий осуществляется государственной инспекцией пробирного надзора по заявлениям установленных форм. Сроки клеймения для изделий отечественного производства до пяти дней, иностранного - по согласованию с ГИПН и в зависимости от загрузки и объема партии изделий. За процедуру клеймения взимается государственная пошлина.</t>
+  </si>
+  <si>
+    <t>В структуру Федерального казенного учреждения «Пробирная палата России» входит Центральный аппарат, восемнадцать государственных инспекций пробирного надзора в регионах и один гомологический центр в составе Государственной инспекции пробирного надзор по Москве и Мэ О. 
+Адреса и контактные данные инспекций представлены на официальном сайте Пробирной палаты России в разделе «Контакты»</t>
+  </si>
+  <si>
+    <t>Государственными инспекциями пробирного надзора осуществляется опробование, анализ и клеймение государственным пробирным клеймом изготовляемых на территории Российской Федерации ювелирных и других бытовых изделий из драгоценных металлов, а также указанных изделий, ввезенных на территорию Российской Федерации для продажи по  заявлениям установленных форм. При сдаче в заявлении указывается состав сплава изделий, заявленная проба, имеющиеся в изделии дефекты, масса, количество, объем.
+На принятые изделия приемщиком госинспекции оформляются квитанции в трех экземплярах по установленным формам. Сдатчик изделий уведомляется о размерах начисленной государственной пошлины.
+Подробнее ознакомиться с процедурой подачи изделий на опробование и клеймение государственным пробирным клеймом, необходимыми документами и сроками клеймения можно ознакомиться в прилагаемом документе «Прием изделий на опробование и клеймение» или на официальном сайте ФКУ «Пробирная палата России» в разделе «Прием изделий на опробование и клеймение»</t>
+  </si>
+  <si>
+    <t>Для физических лиц и компаний импортеров можно опробовать и заклеймить изделия в ГИПН любого региона. Для российских компаний клеймение и опробование можно осуществить только в ГИПН, в районе деятельности которой находится их производство</t>
+  </si>
+  <si>
+    <t>Все ювелирные изделия из драгоценных металлов, ввозимые в Россию из-за рубежа, для сдачи на комиссию или реализацию подлежат 100% клеймению/переклеймению Российскими пробирными клеймами. Переклеймение пробных изделий осуществляется только при наличии соответствующих сопроводительных документов.
+Это касается всех ювелирных изделий, ввозимых  в Россию из-за рубежа, за исключением швейцарских часов, изготовленных с применением драгоценных металлов и камней.
+24 мая 2013 года Госдума РФ ратифицировала соглашение между Правительством РФ и Федеральным советом Швейцарии, подписанного в Москве 14 декабря 2011 года о взаимном признании официальных клейм на изделиях часовой промышленности, изготовленных из драгоценных металлов. Часы из золота, серебра, платины и палладия, ввозимые в Россию и имеющие оттиски официального клейма Швейцарской Конфедерации, клейма завода-изготовителя и законодательно установленного стандарта пробы — не будут подвергаться новому анализу и клеймению в Российской Федерации. Соответственно, при ввозе Российских часов из драг-металлов в Швейцарию, прохождение подобной процедуры, так же не потребуется.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,8 +690,15 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -679,6 +708,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,7 +730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -715,14 +750,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1046,18 +1090,18 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="67.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="98" style="8" customWidth="1"/>
+    <col min="3" max="3" width="73.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="132.7109375" style="7" customWidth="1"/>
     <col min="5" max="5" width="39.85546875" style="6" customWidth="1"/>
     <col min="6" max="6" width="40.85546875" style="6" customWidth="1"/>
     <col min="7" max="7" width="44.7109375" style="6" customWidth="1"/>
@@ -1112,16 +1156,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>34</v>
+        <v>123</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1129,27 +1173,27 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="110.25">
+    </row>
+    <row r="3" spans="1:12" ht="162.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>132</v>
+        <v>36</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1159,27 +1203,27 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="267.75">
+    <row r="4" spans="1:12" ht="352.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1187,27 +1231,27 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="315">
+    <row r="5" spans="1:12" ht="283.5">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -1220,16 +1264,16 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>143</v>
+        <v>46</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1244,16 +1288,16 @@
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1263,44 +1307,44 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="267.75">
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="220.5">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="157.5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="120" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>138</v>
+        <v>53</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1308,27 +1352,27 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="393.75">
+        <v>54</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="249.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1343,48 +1387,48 @@
         <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="267.75">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="236.25">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>68</v>
+      <c r="B12" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1394,27 +1438,27 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="378">
+    <row r="13" spans="1:12" ht="393.75">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1427,22 +1471,22 @@
         <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>76</v>
+      <c r="D14" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1450,79 +1494,79 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="409.5">
+    <row r="15" spans="1:12" ht="362.25">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>82</v>
+        <v>71</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="63">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="78.75">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="236.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="173.25">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>118</v>
-      </c>
       <c r="E17" s="6" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="63">
@@ -1530,16 +1574,16 @@
         <v>28</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>94</v>
+        <v>81</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="94.5">
@@ -1547,16 +1591,16 @@
         <v>29</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>97</v>
+        <v>82</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="63">
@@ -1564,39 +1608,39 @@
         <v>30</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>101</v>
+        <v>86</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="204.75">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="189">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>142</v>
+        <v>90</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="63">
@@ -1604,16 +1648,16 @@
         <v>32</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>110</v>
+        <v>94</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="78.75">
@@ -1621,22 +1665,22 @@
         <v>33</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>114</v>
+        <v>98</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/8_questions.xlsx
+++ b/data/minfin/8_questions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="143">
   <si>
     <t>question</t>
   </si>
@@ -133,14 +133,6 @@
   </si>
   <si>
     <t xml:space="preserve">В чем заключается основная деятельность Пробирной Палаты </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Федеральное казенное учреждение «Российская государственная пробирная палата при Министерстве финансов Российской Федерации» осуществляет:
-- постоянный государственный контроль за производством, извлечением, переработкой, использованием, хранением и учетом драгоценных металлов и драгоценных камней в организациях, определяемых Правительством Российской Федерации;
-- периодический государственный контроль за производством, извлечением, переработкой, использованием, хранением и учетом драгоценных металлов и драгоценных камней, их лома и отходов во всех организациях, осуществляющих указанную деятельность, независимо от организационно-правовых форм, в том числе в воинских частях и воинских формированиях, а также у индивидуальных предпринимателей, осуществляющих операции с драгоценными металлами и драгоценными камнями;
-- контроль за исполнением организациями, осуществляющими операции с драгоценными металлами и драгоценными камнями, требований законодательства Российской Федерации о противодействии легализации (отмыванию) доходов, полученных преступным путем, и финансированию терроризма в части фиксирования, хранения и представления информации, а также за организацией внутреннего контроля;
-- государственный контроль при ввозе в Российскую Федерацию из стран, не входящих в Таможенный союз в рамках ЕврАзЭС, и вывозе из Российской Федерации в эти страны драгоценных металлов, драгоценных камней и сырьевых товаров, содержащих драгоценные металлы
-</t>
   </si>
   <si>
     <t>Раздел «Правовые основы деятельности» на официальном сайте ФКУ «Пробирная палата России; Информация о задачах и функциях ФКУ «Пробирная палата России» на официальном сайте Министерства финансов Российской Федерации; Информация о ФКУ «Пробирная палата России» на официальном сайте размещения информации о государственных (муниципальных) учреждениях</t>
@@ -211,9 +203,6 @@
     <t>Imennik proizvoditely.pdf</t>
   </si>
   <si>
-    <t>Как определяется проба? Какие существуют способы клеймения ювелирных изделий?</t>
-  </si>
-  <si>
     <t>Существует три способа клеймения ювелирных изделий: механический, электроискровой, лазерный</t>
   </si>
   <si>
@@ -470,9 +459,6 @@
 С полной версией истории возникновения Пробирной Палаты можно ознакомиться в документе «История возникновения Пробирной Палаты»</t>
   </si>
   <si>
-    <t>Инспекция пробирного надзора осуществляет надзор за соответствием ювелирных изделий, изготавливаемых на территории России и ввозимых из-за рубежа для продажи установленным в Российской Федерации пробам, осуществляет федеральный государственный пробирный  надзор, производит экспертизу музейных и архивных ценностей из драгоценных металлов и драгоценных камней, и осуществляет периодический контроль за обеспечением сохранности этих ценностей. Опробование и клеймение ювелирных и других изделий из драгоценных металлов</t>
-  </si>
-  <si>
     <t>На опробованных и заклейменных изделиях государственными инспекциями пробирного надзора ставится оттиски государственных пробирных клейм. Других документов и сертификатов не выдается</t>
   </si>
   <si>
@@ -480,12 +466,6 @@
   </si>
   <si>
     <t xml:space="preserve">История возникновения Пробирной Палаты начинается с тринадцатого февраля одна тысяча семисотого года, когда в своём именном приказе Петр первый определил основу системы пробирного надзора. </t>
-  </si>
-  <si>
-    <t>«Российская государственная пробирная палата» осуществляет опробование и клеймение ювелирных и других изделий из драгоценных металлов. Государственный контроль  за исполнением организациями, осуществляющими скупку, куплю-продажу драгоценных металлов, драгоценных камней, ювелирных изделий из них и лома таких изделий требований законодательства Российской Федерации о противодействии легализации (отмыванию) доходов, полученных преступным путем, и финансированию терроризма. Контроль за ввозом/вывозом драгоценных металлов. Ведение специального учета»</t>
-  </si>
-  <si>
-    <t>Все ювелирные и другие изделия из золота, серебра, платины, палладия, реализуемые в России, должны быть заклеймены государственным пробирным клеймом и соответствовать пробам драгоценных металлов</t>
   </si>
   <si>
     <t xml:space="preserve">Все ювелирные украшения и другие изделия из золота, серебра, платины, палладия должны соответствовать пробам, определенным постановлением правительства Российской Федерации № 394 от 06.05.2016 г. «Об опробовании, анализе и клеймении ювелирных и других изделий из драгоценных металлов», и быть заклеймены государственным пробирным клеймом:
@@ -514,11 +494,6 @@
 </t>
   </si>
   <si>
-    <t>Именник - это знак изготовителя, который проставляется юридическим лицом или индивидуальным предпринимателем на изготовленных ими, изделиях (в том числе после ремонта/реставрации).
-Именник содержит информацию о годе выпуска изделия, изготовителе, госинспекции, в которой именник зарегестрирован, а так же индивидуальные знаки (несколько цифр и букв). Первая буква обозначает год изготовления буква [К] — 2009 год, вторая - шифр инспекции [Л] — Северо-западная ГИПН, далее следуют буквы, идентифицирующие мастера — [РН]
-С историей развития именников в России можно ознакомиться в документе «Именник производителя»</t>
-  </si>
-  <si>
     <t xml:space="preserve">Существует три способа клеймения ювелирных изделий: 
 МЕХАНИЧЕСКИЙ — оттиски клейм наносятся на изделие ударным способом (механическими пробирными клеймами при помощи молотка, либо на станках для массового клеймения). Оттиски наносятся как изнутри, так и снаружи. Так же используются специальные подставки — наковаленки, подходящие по форме к изделию. Является самым массовым способом (70-80% всех изделий клеймятся именно так - статистика 2008 г.).
  ДОСТОИНСТВА: Оттиски чёткие, стойкие, долговечные
@@ -595,11 +570,6 @@
 • Имеет право давать руководителю ревизуемого объекта, обязательные указания (предписания) об устранении выявленных недостатков.
 • Привлекать к административной ответственности в соответствии с КоАП РФ.
 • Передавать материалы судебно-следственным органам</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В структуру Федерального казенного учреждения «Пробирная палата России» входит Центральный аппарат, 18 государственных инспекций пробирного надзора в регионах и 1 гомологический центр в составе Государственной инспекции пробирного надзор по Москве и МО. 
-Адреса и контактные данные инспекций представлены на официальном сайте Пробирной палаты России в разделе «Контакты»
-</t>
   </si>
   <si>
     <r>
@@ -648,10 +618,6 @@
     <t>Клеймение ювелирных изделий осуществляется государственной инспекцией пробирного надзора по заявлениям установленных форм. Сроки клеймения для изделий отечественного производства до пяти дней, иностранного - по согласованию с ГИПН и в зависимости от загрузки и объема партии изделий. За процедуру клеймения взимается государственная пошлина.</t>
   </si>
   <si>
-    <t>В структуру Федерального казенного учреждения «Пробирная палата России» входит Центральный аппарат, восемнадцать государственных инспекций пробирного надзора в регионах и один гомологический центр в составе Государственной инспекции пробирного надзор по Москве и Мэ О. 
-Адреса и контактные данные инспекций представлены на официальном сайте Пробирной палаты России в разделе «Контакты»</t>
-  </si>
-  <si>
     <t>Государственными инспекциями пробирного надзора осуществляется опробование, анализ и клеймение государственным пробирным клеймом изготовляемых на территории Российской Федерации ювелирных и других бытовых изделий из драгоценных металлов, а также указанных изделий, ввезенных на территорию Российской Федерации для продажи по  заявлениям установленных форм. При сдаче в заявлении указывается состав сплава изделий, заявленная проба, имеющиеся в изделии дефекты, масса, количество, объем.
 На принятые изделия приемщиком госинспекции оформляются квитанции в трех экземплярах по установленным формам. Сдатчик изделий уведомляется о размерах начисленной государственной пошлины.
 Подробнее ознакомиться с процедурой подачи изделий на опробование и клеймение государственным пробирным клеймом, необходимыми документами и сроками клеймения можно ознакомиться в прилагаемом документе «Прием изделий на опробование и клеймение» или на официальном сайте ФКУ «Пробирная палата России» в разделе «Прием изделий на опробование и клеймение»</t>
@@ -663,6 +629,138 @@
     <t>Все ювелирные изделия из драгоценных металлов, ввозимые в Россию из-за рубежа, для сдачи на комиссию или реализацию подлежат 100% клеймению/переклеймению Российскими пробирными клеймами. Переклеймение пробных изделий осуществляется только при наличии соответствующих сопроводительных документов.
 Это касается всех ювелирных изделий, ввозимых  в Россию из-за рубежа, за исключением швейцарских часов, изготовленных с применением драгоценных металлов и камней.
 24 мая 2013 года Госдума РФ ратифицировала соглашение между Правительством РФ и Федеральным советом Швейцарии, подписанного в Москве 14 декабря 2011 года о взаимном признании официальных клейм на изделиях часовой промышленности, изготовленных из драгоценных металлов. Часы из золота, серебра, платины и палладия, ввозимые в Россию и имеющие оттиски официального клейма Швейцарской Конфедерации, клейма завода-изготовителя и законодательно установленного стандарта пробы — не будут подвергаться новому анализу и клеймению в Российской Федерации. Соответственно, при ввозе Российских часов из драг-металлов в Швейцарию, прохождение подобной процедуры, так же не потребуется.</t>
+  </si>
+  <si>
+    <r>
+      <t>«Российская государственная пробирная палата» осуществляет опробование,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> анализ и</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> клеймение ювелирных и других изделий из драгоценных металлов. Государственный контроль  за исполнением организациями, осуществляющими скупку, куплю-продажу драгоценных металлов, драгоценных камней, ювелирных изделий из них и лома таких изделий требований законодательства Российской Федерации о противодействии легализации (отмыванию) доходов, полученных преступным путем, и финансированию терроризма. Контроль за ввозом/вывозом драгоценных металлов. Ведение специального учета»</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Федеральное казенное учреждение «Российская государственная пробирная палата при Министерстве финансов Российской Федерации» осуществляет:
+- опробование, анализ  и клеймение ювелирных и других изделий из драгоценных металлов,
+- постоянный государственный контроль за производством, извлечением, переработкой, использованием, хранением и учетом драгоценных металлов и драгоценных камней в организациях, определяемых Правительством Российской Федерации;
+- периодический государственный контроль за производством, извлечением, переработкой, использованием, хранением и учетом драгоценных металлов и драгоценных камней, их лома и отходов во всех организациях, осуществляющих указанную деятельность, независимо от организационно-правовых форм, в том числе в воинских частях и воинских формированиях, а также у индивидуальных предпринимателей, осуществляющих операции с драгоценными металлами и драгоценными камнями;
+- контроль за исполнением организациями, осуществляющими операции с драгоценными металлами и драгоценными камнями, требований законодательства Российской Федерации о противодействии легализации (отмыванию) доходов, полученных преступным путем, и финансированию терроризма в части фиксирования, хранения и представления информации, а также за организацией внутреннего контроля;
+- государственный контроль при ввозе в Российскую Федерацию из стран, не входящих в Таможенный союз в рамках ЕврАзЭС, и вывозе из Российской Федерации в эти страны драгоценных металлов, драгоценных камней и сырьевых товаров, содержащих драгоценные металлы
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Все ювелирные и другие изделия из золота, серебра, платины, палладия, реализуемые в России, должны быть заклеймены государственным пробирным клеймом и соответствовать пробам драгоценных металлов, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>утвержденных на территории Российской Федерации</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Именник - это знак изготовителя, который проставляется юридическим лицом или индивидуальным предпринимателем на изготовленных ими, изделиях (в том числе после ремонта/реставрации).
+Имен</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ник содержит информацию о годе выпуска изделия,  госинспекции, в которой именник зарегистрирован, а так же индивидуальные знаки изготовителя (несколько цифр и букв). Первая буква обозначает год изготовления буква [К] — 2009 год, вторая - шифр инспекции [Л] — Северо-западная ГИПН, далее следуют буквы, идентифицирующие мастера — [РН].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+С историей развития именников в России можно ознакомиться в документе «Именник производителя»</t>
+    </r>
+  </si>
+  <si>
+    <t>Какие существуют способы клеймения ювелирных изделий?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В структуру Федерального казенного учреждения «Пробирная палата России» входит Центральный аппарат, восемнадцать государственных инспекций пробирного надзора в регионах и </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>два</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> гомологических центра (один в составе Государственной инспекции пробирного надзора</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> по республике Саха (Якутия)). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Адреса и контактные данные инспекций представлены на официальном сайте Пробирной палаты России в разделе «Контакты»</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">В функции инспекций пробирного надзора входит:
+Контрольно-надзорная деятельность (в том числе проведение проверок):
+- за исполнением юридическими лицами законодательства о противодействии легализации (отмыванию) доходов, полученных преступным путем, и финансированию терроризма;
+- за исполнением законодательства о драгоценных металлах и драгоценных камнях;  
+- за осуществлением сохранности музейных и архивных предметов, изготовленных из драгоценных металлов и драгоценных камней; 
+– постоянный государственный надзор в аффинажных организациях.
+Опробование и клеймение ювелирных и других изделий из драгоценных металлов.
+Специальный учет субъектов драгоценных металлов и драгоценных камней
+</t>
   </si>
 </sst>
 </file>
@@ -698,7 +796,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,6 +815,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -730,7 +834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -767,6 +871,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1090,17 +1200,17 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="73.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="85" style="6" customWidth="1"/>
     <col min="4" max="4" width="132.7109375" style="7" customWidth="1"/>
     <col min="5" max="5" width="39.85546875" style="6" customWidth="1"/>
     <col min="6" max="6" width="40.85546875" style="6" customWidth="1"/>
@@ -1159,13 +1269,13 @@
         <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1187,13 +1297,13 @@
         <v>36</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1210,20 +1320,20 @@
       <c r="B4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1236,22 +1346,22 @@
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -1264,16 +1374,16 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1283,21 +1393,21 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="63">
+    <row r="7" spans="1:12" ht="47.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1312,22 +1422,22 @@
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="120" customHeight="1">
@@ -1335,16 +1445,16 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>127</v>
+      <c r="D9" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1352,27 +1462,27 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="249.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>56</v>
+      <c r="B10" s="13" t="s">
+        <v>140</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1382,53 +1492,53 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="78.75">
+    <row r="11" spans="1:12" ht="63">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="236.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="189">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1438,27 +1548,27 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="393.75">
+    <row r="13" spans="1:12" ht="362.25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1466,27 +1576,27 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="110.25">
+    <row r="14" spans="1:12" ht="94.5">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1499,45 +1609,45 @@
         <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="78.75">
+    </row>
+    <row r="16" spans="1:12" ht="63">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="173.25">
@@ -1545,28 +1655,28 @@
         <v>27</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="K17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="63">
@@ -1574,16 +1684,16 @@
         <v>28</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="94.5">
@@ -1591,16 +1701,16 @@
         <v>29</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="63">
@@ -1608,22 +1718,22 @@
         <v>30</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="G20" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="189">
@@ -1631,16 +1741,16 @@
         <v>31</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="63">
@@ -1648,16 +1758,16 @@
         <v>32</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="D22" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="78.75">
@@ -1665,22 +1775,22 @@
         <v>33</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="D23" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/8_questions.xlsx
+++ b/data/minfin/8_questions.xlsx
@@ -460,9 +460,6 @@
   </si>
   <si>
     <t>На опробованных и заклейменных изделиях государственными инспекциями пробирного надзора ставится оттиски государственных пробирных клейм. Других документов и сертификатов не выдается</t>
-  </si>
-  <si>
-    <t>Иностранным юридическим лицам необходимо пройти государственную регистрацию, т.е. стать резидентом Российской Федерации. Все ювелирные изделия из драгоценных металлов, ввозимые в Россию из-за рубеж подлежат 100% переклеймению Российскими пробирными клеймами</t>
   </si>
   <si>
     <t xml:space="preserve">История возникновения Пробирной Палаты начинается с тринадцатого февраля одна тысяча семисотого года, когда в своём именном приказе Петр первый определил основу системы пробирного надзора. </t>
@@ -761,6 +758,49 @@
 Опробование и клеймение ювелирных и других изделий из драгоценных металлов.
 Специальный учет субъектов драгоценных металлов и драгоценных камней
 </t>
+  </si>
+  <si>
+    <r>
+      <t>Иностранным юридическим лицам необходимо пройти государственную регистрацию, т.е. стать резидентом Российской Федерации. Все ювелирные изделия из драгоценных металлов, ввозимые в Россию из-за рубеж</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>а</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> подлежат </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">сто процентному </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>переклеймению Российскими пробирными клеймами</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -796,7 +836,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -821,6 +861,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -834,7 +880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -877,6 +923,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1189,7 +1238,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1199,11 +1248,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1269,7 +1318,7 @@
         <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>117</v>
@@ -1297,7 +1346,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>112</v>
@@ -1321,10 +1370,10 @@
         <v>37</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>137</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>101</v>
@@ -1377,10 +1426,10 @@
         <v>45</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>46</v>
@@ -1451,7 +1500,7 @@
         <v>52</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>103</v>
@@ -1473,13 +1522,13 @@
         <v>20</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>104</v>
@@ -1500,10 +1549,10 @@
         <v>56</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>105</v>
@@ -1529,16 +1578,16 @@
         <v>22</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1556,10 +1605,10 @@
         <v>61</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>106</v>
@@ -1584,10 +1633,10 @@
         <v>64</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>107</v>
@@ -1604,7 +1653,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="362.25">
+    <row r="15" spans="1:12" ht="378">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1615,7 +1664,7 @@
         <v>69</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>68</v>
@@ -1635,10 +1684,10 @@
         <v>72</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>108</v>
@@ -1658,10 +1707,10 @@
         <v>74</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>109</v>
@@ -1704,10 +1753,10 @@
         <v>80</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>81</v>
@@ -1743,11 +1792,11 @@
       <c r="B21" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>119</v>
+      <c r="C21" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>89</v>

--- a/data/minfin/8_questions.xlsx
+++ b/data/minfin/8_questions.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="145">
   <si>
     <t>question</t>
   </si>
@@ -549,9 +549,6 @@
 Здание пробирной палаты было снесено в конце февраля 2008 года ради строительства гостиницы «Рэдиссон САС» компанией ООО «Легион»</t>
   </si>
   <si>
-    <t>Здание Пробирной палаты утраченный памятник истории и архитектуры восемнадцатого девятнадцатого веков. Здание находилось в Санкт-Петербурге и выходило на Канал Грибоедова и Казанскую улицу</t>
-  </si>
-  <si>
     <t>Инспекция пробирного надзора осуществляет надзор за соответствием ювелирных изделий, изготавливаемых на территории России и ввозимых из-за рубежа для продажи установленным в Российской Федерации пробам, осуществляет федеральный государственный пробирный надзор. Производит экспертизу музейных и архивных ценностей из ДМ и ДК, и осуществляет периодический контроль за обеспечением сохранности этих ценностей.
 Другим важным направлением деятельности инспекций является осуществление специального учета организаций, индивидуальных предпринимателей, осуществляющих операции с драгоценными металлами, драгоценными камнями и изделиями из них. Специальный учет данных субъектов предусмотрен постановлением Правительства Российской Федерации от 1 октября 2015 г. № 1052 «О ведении специального учета юридических лиц и индивидуальных предпринимателей, осуществляющих операции с драгоценными металлами и драгоценными камнями», которое упростило процедуру постановки на специальный учет, что выразилось в увеличении количества заявлений. 
 На специальном учете в государственных инспекциях пробирного надзора состоит около  42 000 субъектов, без учета обособленных подразделений.
@@ -628,30 +625,6 @@
 24 мая 2013 года Госдума РФ ратифицировала соглашение между Правительством РФ и Федеральным советом Швейцарии, подписанного в Москве 14 декабря 2011 года о взаимном признании официальных клейм на изделиях часовой промышленности, изготовленных из драгоценных металлов. Часы из золота, серебра, платины и палладия, ввозимые в Россию и имеющие оттиски официального клейма Швейцарской Конфедерации, клейма завода-изготовителя и законодательно установленного стандарта пробы — не будут подвергаться новому анализу и клеймению в Российской Федерации. Соответственно, при ввозе Российских часов из драг-металлов в Швейцарию, прохождение подобной процедуры, так же не потребуется.</t>
   </si>
   <si>
-    <r>
-      <t>«Российская государственная пробирная палата» осуществляет опробование,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> анализ и</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> клеймение ювелирных и других изделий из драгоценных металлов. Государственный контроль  за исполнением организациями, осуществляющими скупку, куплю-продажу драгоценных металлов, драгоценных камней, ювелирных изделий из них и лома таких изделий требований законодательства Российской Федерации о противодействии легализации (отмыванию) доходов, полученных преступным путем, и финансированию терроризма. Контроль за ввозом/вывозом драгоценных металлов. Ведение специального учета»</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Федеральное казенное учреждение «Российская государственная пробирная палата при Министерстве финансов Российской Федерации» осуществляет:
 - опробование, анализ  и клеймение ювелирных и других изделий из драгоценных металлов,
 - постоянный государственный контроль за производством, извлечением, переработкой, использованием, хранением и учетом драгоценных металлов и драгоценных камней в организациях, определяемых Правительством Российской Федерации;
@@ -802,12 +775,24 @@
       <t>переклеймению Российскими пробирными клеймами</t>
     </r>
   </si>
+  <si>
+    <t>Здание Пробирной палаты - утраченный памятник истории и архитектуры восемнадцатого девятнадцатого веков. Здание находилось в Санкт-Петербурге и выходило на Канал Грибоедова и Казанскую улицу</t>
+  </si>
+  <si>
+    <t>Государственные инспекции пробирного надзора осуществляют экспертизу оттисков пробирных клейм и определяют содержание драгоценных металлов в ювелирных изделиях в установленном порядке, указанном на официальном сайте Федерального казенного учреждения «Пробирная палата России»</t>
+  </si>
+  <si>
+    <t>На опробованных и заклейменных изделиях государственными инспекциями пробирного надзора ставятся оттиски государственных пробирных клейм. Других документов и сертификатов не выдается</t>
+  </si>
+  <si>
+    <t>«Российская государственная пробирная палата» осуществляет опробование, анализ и клеймение ювелирных и других изделий из драгоценных металлов. Государственный контроль за исполнением организациями, осуществляющими скупку, к\+уплю-продажу драгоценных металлов, драгоценных камней, ювелирных изделий из них и лома таких изделий требований законодательства Российской Федерации о противодействии легализации (отмыванию) доходов, полученных преступным путем, и финансированию терроризма. Контроль за ввозом/вывозом драгоценных металлов. Ведение специального учета»</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1238,24 +1223,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" style="6" customWidth="1"/>
@@ -1272,7 +1257,7 @@
     <col min="14" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1310,7 +1295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="63">
+    <row r="2" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1338,7 +1323,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="162.75" customHeight="1">
+    <row r="3" spans="1:12" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1362,7 +1347,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="352.5" customHeight="1">
+    <row r="4" spans="1:12" ht="352.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1370,10 +1355,10 @@
         <v>37</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>101</v>
@@ -1390,7 +1375,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="283.5">
+    <row r="5" spans="1:12" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1418,7 +1403,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="409.5">
+    <row r="6" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1426,7 +1411,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>120</v>
@@ -1442,7 +1427,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="47.25">
+    <row r="7" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1466,7 +1451,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="220.5">
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="252" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1489,7 +1474,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="120" customHeight="1">
+    <row r="9" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1500,7 +1485,7 @@
         <v>52</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>103</v>
@@ -1517,12 +1502,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="249.75" customHeight="1">
+    <row r="10" spans="1:12" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>55</v>
@@ -1541,7 +1526,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="63">
+    <row r="11" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1573,7 +1558,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="189">
+    <row r="12" spans="1:12" ht="189" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -1581,7 +1566,7 @@
         <v>124</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>126</v>
@@ -1597,7 +1582,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="362.25">
+    <row r="13" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -1605,10 +1590,10 @@
         <v>61</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>106</v>
@@ -1625,7 +1610,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="94.5">
+    <row r="14" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -1633,10 +1618,10 @@
         <v>64</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>107</v>
@@ -1653,7 +1638,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="378">
+    <row r="15" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1664,7 +1649,7 @@
         <v>69</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>68</v>
@@ -1676,7 +1661,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="63">
+    <row r="16" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -1684,10 +1669,10 @@
         <v>72</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>108</v>
@@ -1699,7 +1684,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="173.25">
+    <row r="17" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -1707,10 +1692,10 @@
         <v>74</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>109</v>
@@ -1728,7 +1713,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="63">
+    <row r="18" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -1736,7 +1721,7 @@
         <v>79</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>118</v>
@@ -1745,7 +1730,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="94.5">
+    <row r="19" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
@@ -1753,16 +1738,16 @@
         <v>80</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="63">
+    <row r="20" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
@@ -1785,7 +1770,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="189">
+    <row r="21" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
@@ -1793,16 +1778,16 @@
         <v>88</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="63">
+    <row r="22" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
@@ -1819,7 +1804,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="78.75">
+    <row r="23" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>33</v>
       </c>

--- a/data/minfin/8_questions.xlsx
+++ b/data/minfin/8_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="144">
   <si>
     <t>question</t>
   </si>
@@ -183,14 +183,6 @@
     <t>Как изменялся вид клейма впоследствии?</t>
   </si>
   <si>
-    <t xml:space="preserve">1 января 1899 года, вводится единообразное клеймо с изображением женской головы в кокошнике в профиль, направленной влево. 
-С 1908 года по всем пробирным округам, вводятся новые пробирные клейма с изображением женской головы в кокошнике в профиль, направленной вправо, сопровождающейся буквой греческого алфавита — различной для каждого пробирного округа. Проба в клейме, по-прежнему — золотниковая.
-В 1927 году на смену изображению женской головы в кокошнике приходит изображение головы рабочего с молотом. В рамках перехода на метрическую систему исчисления мер создаётся новая система, в которой проба обозначается числом тысячных долей золота в сплаве (она используется и по сей день). В клейме, так же проставляется и шифр пробирного учреждения (буква греческого алфавита).
-С 1 июня 1958 года вводятся новые пробирные клейма, на которых изображаются выпуклые серп и молот на фоне пятиконечной звезды. Шифр пробирной инспекции начинают проставлять буквой русского алфавита. Позже, изображение клейма остаётся неизменным, но его контур становится вырезным (замена производилась по мере изнашивания клейм).
-С 1994 года вводятся новые пробирные клейма, действующие по настоящее время. На клейме — изображение женской головы в кокошнике в профиль, направленной вправо. Шифр пробирной инспекции проставляется буквой русского алфавита (для каждой из 18-и пробирных инспекций — своя буква)
-</t>
-  </si>
-  <si>
     <t>Что такое именник производителя?</t>
   </si>
   <si>
@@ -296,20 +288,10 @@
     <t>Куда, Обратиться, По вопросу, Опробования, Клеймения, Изделий</t>
   </si>
   <si>
-    <t>Все изделия проходят процедуру опробования в Государственных инспекциях пробирного надзор. Необходимо обратится в ближайшую инспекцию вашего региона</t>
-  </si>
-  <si>
-    <t>Все изделия проходят процедуру опробования в Государственных инспекциях пробирного надзора. Необходимо обратится в ближайшую инспекцию вашего региона
-Адреса и контактные данные инспекций представлены на официальном сайте Пробирной палаты России в разделе «Контакты»</t>
-  </si>
-  <si>
     <t>Раздел «Контакты» на официальном сайте ФКУ «Пробирная палата России»</t>
   </si>
   <si>
     <t>http://www.probpalata.ru/rgpp/feedback/</t>
-  </si>
-  <si>
-    <t>Если я нерезидент этой страны мне нужно ставить российскую пробу на свои изделия для реализации их на территории России?</t>
   </si>
   <si>
     <t>Нерезидент, Страны, Нужно ставить, Российская проба, Изделия, Для реализации, На территории, Россия</t>
@@ -457,9 +439,6 @@
   <si>
     <t>История возникновения Пробирной Палаты начинается с 13 февраля 1700 года, когда в своём именном приказе Петр I определил основу системы пробирного надзора. 
 С полной версией истории возникновения Пробирной Палаты можно ознакомиться в документе «История возникновения Пробирной Палаты»</t>
-  </si>
-  <si>
-    <t>На опробованных и заклейменных изделиях государственными инспекциями пробирного надзора ставится оттиски государственных пробирных клейм. Других документов и сертификатов не выдается</t>
   </si>
   <si>
     <t xml:space="preserve">История возникновения Пробирной Палаты начинается с тринадцатого февраля одна тысяча семисотого года, когда в своём именном приказе Петр первый определил основу системы пробирного надзора. </t>
@@ -541,31 +520,6 @@
     <t>Здание, первое, располагалось  Пробирная, Палата</t>
   </si>
   <si>
-    <t>Здание Пробирной палаты — утраченный памятник истории и архитектуры XVIII—XIX веков. Здание находилось в Санкт-Петербурге и выходило на Канал Грибоедова (дом 51) и Казанскую улицу (дом 28).
-Построено между 1768 и 1773 годом для Ассигнационного банка. Строение просматривается на плане Сент-Илера, сделанном как бы с высоты птичьего полёта. После переезда банка в новое здание на Садовой улице, освободившиеся помещения были переданы Государственному дворянскому заемному банку, а с 1840 года здесь разместилась Пробирная палата.
-Фасад по Казанской улице около 1866 года перестраивал В. Е. Стуккей, помощником которого при строительстве служил тогда еще молодой зодчий П. Ю. Сюзор, который «принял на себя ближайший надзор за всеми работами» М. Микишатьев, обнаруживший документы по строительству, отмечает, что это была первая работа Сюзора в Санкт-Петербурге
-В 1875—1876 годах здание Пробирной палаты было перестроено архитектором  Г.Б. Прангом, но фасады больше не менялись.
-Пробирная палата, ставшая в советское время Ленинградским управлением пробирного контроля, занимала это здание до 1980-х.
-Здание пробирной палаты было снесено в конце февраля 2008 года ради строительства гостиницы «Рэдиссон САС» компанией ООО «Легион»</t>
-  </si>
-  <si>
-    <t>Инспекция пробирного надзора осуществляет надзор за соответствием ювелирных изделий, изготавливаемых на территории России и ввозимых из-за рубежа для продажи установленным в Российской Федерации пробам, осуществляет федеральный государственный пробирный надзор. Производит экспертизу музейных и архивных ценностей из ДМ и ДК, и осуществляет периодический контроль за обеспечением сохранности этих ценностей.
-Другим важным направлением деятельности инспекций является осуществление специального учета организаций, индивидуальных предпринимателей, осуществляющих операции с драгоценными металлами, драгоценными камнями и изделиями из них. Специальный учет данных субъектов предусмотрен постановлением Правительства Российской Федерации от 1 октября 2015 г. № 1052 «О ведении специального учета юридических лиц и индивидуальных предпринимателей, осуществляющих операции с драгоценными металлами и драгоценными камнями», которое упростило процедуру постановки на специальный учет, что выразилось в увеличении количества заявлений. 
-На специальном учете в государственных инспекциях пробирного надзора состоит около  42 000 субъектов, без учета обособленных подразделений.
-С учетом обособленных подразделений – более 100 000 единиц учета.
-1. Инспекция изготавливает пробирные реактивы по заказам юридических лиц и предпринимателей.
-2. Регистрирует шифры именников изготовителей ювелирной продукции
-3. Регистрирует юридических лиц и индивидуальных предпринимателей (постановка на специальный учет).
-4. Осуществляет государственный контроль по ввозу-вывозу ДМ и ДК и сырьевых товаров, содержащих драгоценные металлы в Россию и из неё.
-5. Финансовый мониторинг (контроль за операциями с ДМ и ДК на сумму от 600.000 рублей и выше).
-6. Обеспечивает федеральный государственный пробирный надзор за деятельностью объектов, где используются ДМ и ДК.
-Инспекция может отправить на проверяемый объект контролера-ревизора, в права и обязанности, которого, входит:
-• Имеет право требовать от ревизуемых предприятий, представление всей нормативно-технической документации (в т.ч. бухгалтерской), касающейся ДМ и ДК.
-• Имеет право давать руководителю ревизуемого объекта, обязательные указания (предписания) об устранении выявленных недостатков.
-• Привлекать к административной ответственности в соответствии с КоАП РФ.
-• Передавать материалы судебно-следственным органам</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Постановку на специальный учет осуществляет федеральное казенное учреждение «Российская государственная пробирная палата при Министерстве финансов Российской Федерации» в соответствии с Постановлением Правительства Российской Федерации от 1 октября 2015 г. №1052 «О ведении специального учета юридических лиц и индивидуальных предпринимателей, осуществляющих операции с драгоценными металлами и драгоценными камнями».
 Постановке на специальный учет подлежат юридические лица и индивидуальные предприниматели, осуществляющие операции с драгоценными металлами и драгоценными камнями, за исключением:
@@ -606,23 +560,10 @@
     </r>
   </si>
   <si>
-    <t>Государственные инспекции пробирного надзора осуществляют экспертизу оттисков пробирных клейм и определяют содержание драгоценных металлов ювелирных изделиях в установленном порядке, указанном на официальном сайте Федерального казенного учреждения «Пробирная палата России»</t>
-  </si>
-  <si>
     <t>Клеймение ювелирных изделий осуществляется государственной инспекцией пробирного надзора по заявлениям установленных форм. Сроки клеймения для изделий отечественного производства до пяти дней, иностранного - по согласованию с ГИПН и в зависимости от загрузки и объема партии изделий. За процедуру клеймения взимается государственная пошлина.</t>
   </si>
   <si>
-    <t>Государственными инспекциями пробирного надзора осуществляется опробование, анализ и клеймение государственным пробирным клеймом изготовляемых на территории Российской Федерации ювелирных и других бытовых изделий из драгоценных металлов, а также указанных изделий, ввезенных на территорию Российской Федерации для продажи по  заявлениям установленных форм. При сдаче в заявлении указывается состав сплава изделий, заявленная проба, имеющиеся в изделии дефекты, масса, количество, объем.
-На принятые изделия приемщиком госинспекции оформляются квитанции в трех экземплярах по установленным формам. Сдатчик изделий уведомляется о размерах начисленной государственной пошлины.
-Подробнее ознакомиться с процедурой подачи изделий на опробование и клеймение государственным пробирным клеймом, необходимыми документами и сроками клеймения можно ознакомиться в прилагаемом документе «Прием изделий на опробование и клеймение» или на официальном сайте ФКУ «Пробирная палата России» в разделе «Прием изделий на опробование и клеймение»</t>
-  </si>
-  <si>
     <t>Для физических лиц и компаний импортеров можно опробовать и заклеймить изделия в ГИПН любого региона. Для российских компаний клеймение и опробование можно осуществить только в ГИПН, в районе деятельности которой находится их производство</t>
-  </si>
-  <si>
-    <t>Все ювелирные изделия из драгоценных металлов, ввозимые в Россию из-за рубежа, для сдачи на комиссию или реализацию подлежат 100% клеймению/переклеймению Российскими пробирными клеймами. Переклеймение пробных изделий осуществляется только при наличии соответствующих сопроводительных документов.
-Это касается всех ювелирных изделий, ввозимых  в Россию из-за рубежа, за исключением швейцарских часов, изготовленных с применением драгоценных металлов и камней.
-24 мая 2013 года Госдума РФ ратифицировала соглашение между Правительством РФ и Федеральным советом Швейцарии, подписанного в Москве 14 декабря 2011 года о взаимном признании официальных клейм на изделиях часовой промышленности, изготовленных из драгоценных металлов. Часы из золота, серебра, платины и палладия, ввозимые в Россию и имеющие оттиски официального клейма Швейцарской Конфедерации, клейма завода-изготовителя и законодательно установленного стандарта пробы — не будут подвергаться новому анализу и клеймению в Российской Федерации. Соответственно, при ввозе Российских часов из драг-металлов в Швейцарию, прохождение подобной процедуры, так же не потребуется.</t>
   </si>
   <si>
     <t xml:space="preserve">Федеральное казенное учреждение «Российская государственная пробирная палата при Министерстве финансов Российской Федерации» осуществляет:
@@ -646,32 +587,6 @@
         <charset val="204"/>
       </rPr>
       <t>утвержденных на территории Российской Федерации</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Именник - это знак изготовителя, который проставляется юридическим лицом или индивидуальным предпринимателем на изготовленных ими, изделиях (в том числе после ремонта/реставрации).
-Имен</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ник содержит информацию о годе выпуска изделия,  госинспекции, в которой именник зарегистрирован, а так же индивидуальные знаки изготовителя (несколько цифр и букв). Первая буква обозначает год изготовления буква [К] — 2009 год, вторая - шифр инспекции [Л] — Северо-западная ГИПН, далее следуют буквы, идентифицирующие мастера — [РН].</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-С историей развития именников в России можно ознакомиться в документе «Именник производителя»</t>
     </r>
   </si>
   <si>
@@ -787,12 +702,94 @@
   <si>
     <t>«Российская государственная пробирная палата» осуществляет опробование, анализ и клеймение ювелирных и других изделий из драгоценных металлов. Государственный контроль за исполнением организациями, осуществляющими скупку, к\+уплю-продажу драгоценных металлов, драгоценных камней, ювелирных изделий из них и лома таких изделий требований законодательства Российской Федерации о противодействии легализации (отмыванию) доходов, полученных преступным путем, и финансированию терроризма. Контроль за ввозом/вывозом драгоценных металлов. Ведение специального учета»</t>
   </si>
+  <si>
+    <t xml:space="preserve">1 января 1899 года, вводится единообразное клеймо с изображением женской головы в кокошнике в профиль, направленной влево. 
+С 1908 года по всем пробирным округам вводятся новые пробирные клейма с изображением женской головы в кокошнике в профиль, направленной вправо, сопровождающейся буквой греческого алфавита — различной для каждого пробирного округа. Проба в клейме, по-прежнему — золотниковая.
+В 1927 году на смену изображению женской головы в кокошнике приходит изображение головы рабочего с молотом. В рамках перехода на метрическую систему исчисления мер создаётся новая система, в которой проба обозначается числом тысячных долей золота в сплаве (она используется и по сей день). В клейме также проставляется и шифр пробирного учреждения (буква греческого алфавита).
+С 1 июня 1958 года вводятся новые пробирные клейма, на которых изображаются выпуклые серп и молот на фоне пятиконечной звезды. Шифр пробирной инспекции начинают проставлять буквой русского алфавита. Позже изображение клейма остаётся неизменным, но его контур становится вырезным (замена производилась по мере изнашивания клейм).
+С 1994 года вводятся новые пробирные клейма, действующие по настоящее время. На клейме — изображение женской головы в кокошнике в профиль, направленной вправо. Шифр пробирной инспекции проставляется буквой русского алфавита (для каждой из 18-и пробирных инспекций — своя буква)
+</t>
+  </si>
+  <si>
+    <r>
+      <t>Именник - это знак изготовителя, который проставляется юридическим лицом или индивидуальным предпринимателем на изготовленных ими изделиях (в том числе после ремонта/реставрации).
+Имен</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ник содержит информацию о годе выпуска изделия,  госинспекции, в которой именник зарегистрирован, а также индивидуальные знаки изготовителя (несколько цифр и букв). Первая буква обозначает год изготовления: буква [К] — 2009 год, вторая - шифр инспекции: [Л] — Северо-западная ГИПН, далее следуют буквы, идентифицирующие мастера — [РН].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+С историей развития именников в России можно ознакомиться в документе «Именник производителя»</t>
+    </r>
+  </si>
+  <si>
+    <t>Здание Пробирной палаты — утраченный памятник истории и архитектуры XVIII—XIX веков. Здание находилось в Санкт-Петербурге и выходило на Канал Грибоедова (дом 51) и Казанскую улицу (дом 28).
+Построено между 1768 и 1773 годом для Ассигнационного банка. Строение просматривается на плане Сент-Илера, сделанном как бы с высоты птичьего полёта. После переезда банка в новое здание на Садовой улице, освободившиеся помещения были переданы Государственному дворянскому заемному банку, а с 1840 года здесь разместилась Пробирная палата.
+Фасад по Казанской улице около 1866 года перестраивал В.Е. Стуккей, помощником которого при строительстве служил тогда еще молодой зодчий П.Ю. Сюзор, который «принял на себя ближайший надзор за всеми работами» М. Микишатьев, обнаруживший документы по строительству, отмечает, что это была первая работа Сюзора в Санкт-Петербурге.
+В 1875—1876 годах здание Пробирной палаты было перестроено архитектором  Г.Б. Прангом, но фасады больше не менялись.
+Пробирная палата, ставшая в советское время Ленинградским управлением пробирного контроля, занимала это здание до 1980-х.
+Здание Пробирной палаты было снесено в конце февраля 2008 года ради строительства гостиницы «Рэдиссон САС» компанией ООО «Легион»</t>
+  </si>
+  <si>
+    <t>Инспекция пробирного надзора осуществляет надзор за соответствием ювелирных изделий, изготавливаемых на территории России и ввозимых из-за рубежа для продажи установленным в Российской Федерации пробам, осуществляет федеральный государственный пробирный надзор. Производит экспертизу музейных и архивных ценностей из ДМ и ДК, и осуществляет периодический контроль за обеспечением сохранности этих ценностей.
+Другим важным направлением деятельности инспекций является осуществление специального учета организаций, индивидуальных предпринимателей, осуществляющих операции с драгоценными металлами, драгоценными камнями и изделиями из них. Специальный учет данных субъектов предусмотрен постановлением Правительства Российской Федерации от 1 октября 2015 г. № 1052 «О ведении специального учета юридических лиц и индивидуальных предпринимателей, осуществляющих операции с драгоценными металлами и драгоценными камнями», которое упростило процедуру постановки на специальный учет, что выразилось в увеличении количества заявлений. 
+На специальном учете в государственных инспекциях пробирного надзора состоит около  42 000 субъектов, без учета обособленных подразделений.
+С учетом обособленных подразделений – более 100 000 единиц учета.
+1. Инспекция изготавливает пробирные реактивы по заказам юридических лиц и предпринимателей.
+2. Регистрирует шифры именников изготовителей ювелирной продукции.
+3. Регистрирует юридических лиц и индивидуальных предпринимателей (постановка на специальный учет).
+4. Осуществляет государственный контроль по ввозу-вывозу ДМ и ДК и сырьевых товаров, содержащих драгоценные металлы в Россию и из неё.
+5. Финансовый мониторинг (контроль за операциями с ДМ и ДК на сумму от 600.000 рублей и выше).
+6. Обеспечивает федеральный государственный пробирный надзор за деятельностью объектов, где используются ДМ и ДК.
+Инспекция может отправить на проверяемый объект контролера-ревизора, в права и обязанности которого входит:
+• Имеет право требовать от ревизуемых предприятий, представление всей нормативно-технической документации (в т.ч. бухгалтерской), касающейся ДМ и ДК.
+• Имеет право давать руководителю ревизуемого объекта обязательные указания (предписания) об устранении выявленных недостатков.
+• Привлекать к административной ответственности в соответствии с КоАП РФ.
+• Передавать материалы судебно-следственным органам</t>
+  </si>
+  <si>
+    <t>Государственными инспекциями пробирного надзора осуществляется опробование, анализ и клеймение государственным пробирным клеймом изготовляемых на территории Российской Федерации ювелирных и других бытовых изделий из драгоценных металлов, а также указанных изделий, ввезенных на территорию Российской Федерации для продажи по заявлениям установленных форм. При сдаче в заявлении указывается состав сплава изделий, заявленная проба, имеющиеся в изделии дефекты, масса, количество, объем.
+На принятые изделия приемщиком госинспекции оформляются квитанции в трех экземплярах по установленным формам. Сдатчик изделий уведомляется о размерах начисленной государственной пошлины.
+Подробнее ознакомиться с процедурой подачи изделий на опробование и клеймение государственным пробирным клеймом, необходимыми документами и сроками клеймения можно ознакомиться в прилагаемом документе «Прием изделий на опробование и клеймение» или на официальном сайте ФКУ «Пробирная палата России» в разделе «Прием изделий на опробование и клеймение»</t>
+  </si>
+  <si>
+    <t>Для физических лиц и компаний-импортеров можно опробовать и заклеймить изделия в ГИПН любого региона. Для российских компаний клеймение и опробование можно осуществить только в ГИПН, в районе деятельности которой находится их производство</t>
+  </si>
+  <si>
+    <t>Все изделия проходят процедуру опробования в Государственных инспекциях пробирного надзора. Необходимо обратится в ближайшую инспекцию вашего региона</t>
+  </si>
+  <si>
+    <t>Все изделия проходят процедуру опробования в Государственных инспекциях пробирного надзора. Необходимо обратиться в ближайшую инспекцию вашего региона.
+Адреса и контактные данные инспекций представлены на официальном сайте Пробирной палаты России в разделе «Контакты»</t>
+  </si>
+  <si>
+    <t>Если я нерезидент этой страны, мне нужно ставить российскую пробу на свои изделия для реализации их на территории России?</t>
+  </si>
+  <si>
+    <t>Все ювелирные изделия из драгоценных металлов, ввозимые в Россию из-за рубежа, для сдачи на комиссию или реализацию подлежат 100% клеймению/переклеймению Российскими пробирными клеймами. Переклеймение пробных изделий осуществляется только при наличии соответствующих сопроводительных документов.
+Это касается всех ювелирных изделий, ввозимых  в Россию из-за рубежа, за исключением швейцарских часов, изготовленных с применением драгоценных металлов и камней.
+24 мая 2013 года Госдума РФ ратифицировала соглашение между Правительством РФ и Федеральным советом Швейцарии, подписанного в Москве 14 декабря 2011 года о взаимном признании официальных клейм на изделиях часовой промышленности, изготовленных из драгоценных металлов. Часы из золота, серебра, платины и палладия, ввозимые в Россию и имеющие оттиски официального клейма Швейцарской Конфедерации, клейма завода-изготовителя и законодательно установленного стандарта пробы — не будут подвергаться новому анализу и клеймению в Российской Федерации. Соответственно, при ввозе Российских часов из драгметаллов в Швейцарию прохождение подобной процедуры также не потребуется.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1223,24 +1220,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" style="6" customWidth="1"/>
@@ -1257,7 +1254,7 @@
     <col min="14" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1295,7 +1292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="63">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1303,13 +1300,13 @@
         <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1323,7 +1320,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="162.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1331,13 +1328,13 @@
         <v>36</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1347,7 +1344,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="352.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="352.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1355,13 +1352,13 @@
         <v>37</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>38</v>
@@ -1375,7 +1372,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="283.5">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1383,7 +1380,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>42</v>
@@ -1403,7 +1400,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="409.5">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1411,10 +1408,10 @@
         <v>45</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>46</v>
@@ -1427,7 +1424,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="47.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1435,10 +1432,10 @@
         <v>47</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>48</v>
@@ -1451,7 +1448,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="252" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="220.5">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1459,36 +1456,36 @@
         <v>49</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="120" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="D9" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1496,27 +1493,27 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" ht="249.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1526,53 +1523,53 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="63">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="189" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" ht="189">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1582,27 +1579,27 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="362.25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1610,27 +1607,27 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="94.5">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1638,193 +1635,193 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="378">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="F15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" ht="63">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" ht="173.25">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="K17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" ht="63">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="94.5">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" ht="63">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="F20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" ht="189">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="63">
       <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="78.75">
       <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/8_questions.xlsx
+++ b/data/minfin/8_questions.xlsx
@@ -132,9 +132,6 @@
     <t>Кто инициировал создание Пробирного надзора?</t>
   </si>
   <si>
-    <t xml:space="preserve">В чем заключается основная деятельность Пробирной Палаты </t>
-  </si>
-  <si>
     <t>Раздел «Правовые основы деятельности» на официальном сайте ФКУ «Пробирная палата России; Информация о задачах и функциях ФКУ «Пробирная палата России» на официальном сайте Министерства финансов Российской Федерации; Информация о ФКУ «Пробирная палата России» на официальном сайте размещения информации о государственных (муниципальных) учреждениях</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
   </si>
   <si>
     <t>Какие, пробы, официально, хождение, существуют. Российская Федерация</t>
-  </si>
-  <si>
-    <t>Когда появилось первое единообразное клеймо в России</t>
   </si>
   <si>
     <t>Когда, Официально, Появилось, Первое, Единообразное, Клеймо, России</t>
@@ -783,6 +777,12 @@
     <t>Все ювелирные изделия из драгоценных металлов, ввозимые в Россию из-за рубежа, для сдачи на комиссию или реализацию подлежат 100% клеймению/переклеймению Российскими пробирными клеймами. Переклеймение пробных изделий осуществляется только при наличии соответствующих сопроводительных документов.
 Это касается всех ювелирных изделий, ввозимых  в Россию из-за рубежа, за исключением швейцарских часов, изготовленных с применением драгоценных металлов и камней.
 24 мая 2013 года Госдума РФ ратифицировала соглашение между Правительством РФ и Федеральным советом Швейцарии, подписанного в Москве 14 декабря 2011 года о взаимном признании официальных клейм на изделиях часовой промышленности, изготовленных из драгоценных металлов. Часы из золота, серебра, платины и палладия, ввозимые в Россию и имеющие оттиски официального клейма Швейцарской Конфедерации, клейма завода-изготовителя и законодательно установленного стандарта пробы — не будут подвергаться новому анализу и клеймению в Российской Федерации. Соответственно, при ввозе Российских часов из драгметаллов в Швейцарию прохождение подобной процедуры также не потребуется.</t>
+  </si>
+  <si>
+    <t>В чем заключается основная деятельность Пробирной Палаты?</t>
+  </si>
+  <si>
+    <t>Когда появилось первое единообразное клеймо в России?</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1220,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1234,7 +1234,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1300,13 +1300,13 @@
         <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1328,13 +1328,13 @@
         <v>36</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1349,22 +1349,22 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1377,22 +1377,22 @@
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -1405,16 +1405,16 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1429,16 +1429,16 @@
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1453,22 +1453,22 @@
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="120" customHeight="1">
@@ -1476,16 +1476,16 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1493,10 +1493,10 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="249.75" customHeight="1">
@@ -1504,16 +1504,16 @@
         <v>20</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1528,48 +1528,48 @@
         <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="189">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="173.25">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1584,22 +1584,22 @@
         <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1612,22 +1612,22 @@
         <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1635,27 +1635,27 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="378">
+    <row r="15" spans="1:12" ht="362.25">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="63">
@@ -1663,22 +1663,22 @@
         <v>26</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="173.25">
@@ -1686,28 +1686,28 @@
         <v>27</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="K17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="63">
@@ -1715,33 +1715,33 @@
         <v>28</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="94.5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="78.75">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="63">
@@ -1749,39 +1749,39 @@
         <v>30</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="189">
+    </row>
+    <row r="21" spans="1:12" ht="173.25">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="63">
@@ -1789,16 +1789,16 @@
         <v>32</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="D22" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="78.75">
@@ -1806,22 +1806,22 @@
         <v>33</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="D23" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
